--- a/airline/management/commands/AirlineRoutesWayPoints/WayPoints.xlsx
+++ b/airline/management/commands/AirlineRoutesWayPoints/WayPoints.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F345"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11473,6 +11473,710 @@
         </is>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>AURANGABAD</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>N19°51'39.95"</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>E075°24'18.90"</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>DUBOX</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>N20°22'15.00"</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>E076°49'56.00"</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>NINAT</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>N20°32'48.00"</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>E077°24'56.00"</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>NAGPUR</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>N21°04'53.22"</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>E079°03'22.67"</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>TEGIG</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>N21°30'09.00"</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>E080°35'37.00"</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>DOSAT</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>N21°41'32.99"</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>E081°18'24.00"</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>OPONI</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>N21°47'03.00"</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>E081°38'24.00"</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>NIPAD</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>N21°52'17.99"</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>E081°59'52.99"</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>OTABA</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>N22°11'02.99"</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>E083°19'22.99"</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>KINKI</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>N22°19'17.99"</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>E083°55'38.00"</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>AGROM</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>N22°31'44.99"</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>E084°49'59.99"</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>JAMSHEDPUR</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>N22°48'47.47"</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>E086°10'26.15"</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>KAMGU</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>N14°58'31.00"</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>E079°25'12.00"</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>KIKUR</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>N15°58'54.99"</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>E079°10'32.00"</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>ANDAV</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>N17°28'18.00"</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>E078°48'49.00"</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>ALBED</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>N18°07'01.99"</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>E078°39'23.99"</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>LAROB</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>N19°10'14.00"</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>E078°23'40.00"</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>SUDEL</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>N19°34'17.99"</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>E078°17'18.99"</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>TASEX</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>N20°33'54.00"</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>E078°01'36.99"</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>RENAG</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>N22°03'12.00"</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>E077°39'32.00"</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>BHOPAL</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>N23°16'59.73"</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>E077°20'11.85"</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>INTIL</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>N26°27'51.00"</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>E076°32'40.99"</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/airline/management/commands/AirlineRoutesWayPoints/WayPoints.xlsx
+++ b/airline/management/commands/AirlineRoutesWayPoints/WayPoints.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="WayPoints" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F368"/>
+  <dimension ref="A1:F386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>VUZ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -481,11 +481,15 @@
           <t>WayPoint</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>N33°40'12.47"</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>W086°53'59.41"</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -496,7 +500,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VUZ</t>
+          <t>YAALL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -511,12 +515,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N33°40'12.47"</t>
+          <t>N33°47'36.30"</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>W086°53'59.41"</t>
+          <t>W087°28'51.23"</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -528,7 +532,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>YAALL</t>
+          <t>XESSS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -543,12 +547,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N33°47'36.30"</t>
+          <t>N34°18'50.62"</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>W087°28'51.23"</t>
+          <t>W090°07'02.78"</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -560,7 +564,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XESSS</t>
+          <t>CARIN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -575,12 +579,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N34°18'50.62"</t>
+          <t>N34°27'14.98"</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>W090°07'02.78"</t>
+          <t>W090°53'13.05"</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -592,7 +596,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CARIN</t>
+          <t>ARIGY</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -607,12 +611,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N34°27'14.98"</t>
+          <t>N34°32'07.71"</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>W090°53'13.05"</t>
+          <t>W091°20'49.90"</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -624,7 +628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ARIGY</t>
+          <t>LIT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -639,12 +643,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N34°32'07.71"</t>
+          <t>N34°40'39.62"</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>W091°20'49.90"</t>
+          <t>W092°10'49.90"</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -656,7 +660,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LIT</t>
+          <t>KOMMA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -671,12 +675,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>N34°40'39.62"</t>
+          <t>N35°00'52.67"</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>W092°10'49.90"</t>
+          <t>W094°40'39.39"</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -688,7 +692,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KOMMA</t>
+          <t>KLUBB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -703,12 +707,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N35°00'52.67"</t>
+          <t>N35°07'13.30"</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>W094°40'39.39"</t>
+          <t>W095°28'00.29"</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -720,7 +724,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KLUBB</t>
+          <t>DWINE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -735,12 +739,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N35°07'13.30"</t>
+          <t>N35°12'29.02"</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>W095°28'00.29"</t>
+          <t>W096°12'58.54"</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -752,7 +756,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DWINE</t>
+          <t>IRW</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -767,12 +771,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N35°12'29.02"</t>
+          <t>N35°21'30.94"</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>W096°12'58.54"</t>
+          <t>W097°36'33.21"</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -784,7 +788,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IRW</t>
+          <t>CRUSR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -799,12 +803,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>N35°21'30.94"</t>
+          <t>N35°20'07.49"</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>W097°36'33.21"</t>
+          <t>W098°51'58.39"</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -816,7 +820,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CRUSR</t>
+          <t>PNH</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -831,12 +835,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N35°20'07.49"</t>
+          <t>N35°14'06.22"</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>W098°51'58.39"</t>
+          <t>W101°41'56.51"</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -848,7 +852,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PNH</t>
+          <t>TCC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -863,12 +867,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>N35°14'06.22"</t>
+          <t>N35°10'55.94"</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>W101°41'56.51"</t>
+          <t>W103°35'54.89"</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -880,7 +884,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TCC</t>
+          <t>ABQ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -895,12 +899,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>N35°10'55.94"</t>
+          <t>N35°02'37.66"</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>W103°35'54.89"</t>
+          <t>W106°48'58.72"</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -912,7 +916,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ABQ</t>
+          <t>ZUN</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -927,12 +931,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>N35°02'37.66"</t>
+          <t>N34°57'56.71"</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>W106°48'58.72"</t>
+          <t>W109°09'16.23"</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -944,7 +948,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ZUN</t>
+          <t>PYRIT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -959,12 +963,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N34°57'56.71"</t>
+          <t>N34°52'10.39"</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>W109°09'16.23"</t>
+          <t>W110°30'41.16"</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -976,7 +980,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PYRIT</t>
+          <t>DRK</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -991,12 +995,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>N34°52'10.39"</t>
+          <t>N34°42'09.19"</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>W110°30'41.16"</t>
+          <t>W112°28'49.24"</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1008,7 +1012,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DRK</t>
+          <t>HIPPI</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1023,12 +1027,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>N34°42'09.19"</t>
+          <t>N34°33'44.24"</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>W112°28'49.24"</t>
+          <t>W113°38'21.73"</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1040,7 +1044,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HIPPI</t>
+          <t>CADEZ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1055,12 +1059,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>N34°33'44.24"</t>
+          <t>N34°12'23.63"</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>W113°38'21.73"</t>
+          <t>W115°20'34.34"</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1072,7 +1076,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CADEZ</t>
+          <t>TNP</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1087,12 +1091,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>N34°12'23.63"</t>
+          <t>N34°06'44.04"</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>W115°20'34.34"</t>
+          <t>W115°46'11.65"</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1104,7 +1108,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TNP</t>
+          <t>SAX</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1119,12 +1123,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>N34°06'44.04"</t>
+          <t>N41°04'03.15"</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>W115°46'11.65"</t>
+          <t>W074°32'17.92"</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1136,7 +1140,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SAX</t>
+          <t>COATE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1151,12 +1155,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>N41°04'03.15"</t>
+          <t>N41°08'10.42"</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>W074°32'17.92"</t>
+          <t>W074°41'42.60"</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1168,7 +1172,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>COATE</t>
+          <t>LAAYK</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1183,12 +1187,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>N41°08'10.42"</t>
+          <t>N41°28'32.64"</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>W074°41'42.60"</t>
+          <t>W075°28'57.31"</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1200,7 +1204,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LAAYK</t>
+          <t>YYOST</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1215,12 +1219,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>N41°28'32.64"</t>
+          <t>N41°34'57.78"</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>W075°28'57.31"</t>
+          <t>W075°51'21.05"</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1232,7 +1236,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>YYOST</t>
+          <t>DGRAF</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1247,12 +1251,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>N41°34'57.78"</t>
+          <t>N41°41'10.52"</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>W075°51'21.05"</t>
+          <t>W076°13'21.15"</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1264,7 +1268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DGRAF</t>
+          <t>MTCAF</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1279,12 +1283,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>N41°41'10.52"</t>
+          <t>N41°46'11.34"</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>W076°13'21.15"</t>
+          <t>W076°31'20.58"</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1296,7 +1300,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MTCAF</t>
+          <t>REBBL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1311,12 +1315,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>N41°46'11.34"</t>
+          <t>N41°52'57.63"</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>W076°31'20.58"</t>
+          <t>W076°55'58.06"</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1328,7 +1332,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>REBBL</t>
+          <t>REXXY</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1343,12 +1347,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>N41°52'57.63"</t>
+          <t>N42°00'39.83"</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>W076°55'58.06"</t>
+          <t>W077°24'34.97"</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1360,7 +1364,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>REXXY</t>
+          <t>HERBA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1375,12 +1379,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>N42°00'39.83"</t>
+          <t>N42°14'35.29"</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>W077°24'34.97"</t>
+          <t>W078°16'27.84"</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1392,7 +1396,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HERBA</t>
+          <t>RAAKK</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1407,12 +1411,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>N42°14'35.29"</t>
+          <t>N42°23'59.00"</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>W078°16'27.84"</t>
+          <t>W078°54'39.00"</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1424,7 +1428,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RAAKK</t>
+          <t>FARGN</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1439,12 +1443,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>N42°23'59.00"</t>
+          <t>N42°36'42.19"</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>W078°54'39.00"</t>
+          <t>W079°47'18.42"</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1456,7 +1460,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FARGN</t>
+          <t>ICHOL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1471,12 +1475,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>N42°36'42.19"</t>
+          <t>N42°38'31.46"</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>W079°47'18.42"</t>
+          <t>W080°30'13.99"</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1488,7 +1492,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ICHOL</t>
+          <t>JAAJA</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1503,12 +1507,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>N42°38'31.46"</t>
+          <t>N42°40'00.00"</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>W080°30'13.99"</t>
+          <t>W081°16'00.00"</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1520,7 +1524,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>JAAJA</t>
+          <t>TWIGS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1535,12 +1539,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>N42°40'00.00"</t>
+          <t>N42°48'34.10"</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>W081°16'00.00"</t>
+          <t>W082°33'10.30"</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1552,7 +1556,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TWIGS</t>
+          <t>BERYS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1567,12 +1571,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>N42°48'34.10"</t>
+          <t>N42°54'33.97"</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>W082°33'10.30"</t>
+          <t>W083°17'59.75"</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1584,7 +1588,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BERYS</t>
+          <t>FNT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1599,12 +1603,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>N42°54'33.97"</t>
+          <t>N42°58'00.38"</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>W083°17'59.75"</t>
+          <t>W083°44'49.08"</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1616,7 +1620,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FNT</t>
+          <t>MONEE</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1631,12 +1635,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>N42°58'00.38"</t>
+          <t>N43°14'25.80"</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>W083°44'49.08"</t>
+          <t>W084°27'50.95"</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1648,7 +1652,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MONEE</t>
+          <t>GRB</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1663,12 +1667,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>N43°14'25.80"</t>
+          <t>N44°33'18.57"</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>W084°27'50.95"</t>
+          <t>W088°11'41.48"</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1680,7 +1684,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GRB</t>
+          <t>TWINZ</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1695,12 +1699,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>N44°33'18.57"</t>
+          <t>N45°02'55.67"</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>W088°11'41.48"</t>
+          <t>W092°17'21.64"</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1712,7 +1716,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TWINZ</t>
+          <t>GEP</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1727,12 +1731,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>N45°02'55.67"</t>
+          <t>N45°08'44.46"</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>W092°17'21.64"</t>
+          <t>W093°22'23.45"</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1744,7 +1748,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GEP</t>
+          <t>ABR</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1759,12 +1763,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>N45°08'44.46"</t>
+          <t>N45°25'02.47"</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>W093°22'23.45"</t>
+          <t>W098°22'07.39"</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1776,7 +1780,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ABR</t>
+          <t>MLS</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1791,12 +1795,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>N45°25'02.47"</t>
+          <t>N46°22'56.00"</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>W098°22'07.39"</t>
+          <t>W105°57'12.72"</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1808,7 +1812,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MLS</t>
+          <t>ISAME</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1823,12 +1827,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>N46°22'56.00"</t>
+          <t>N46°25'43.25"</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>W105°57'12.72"</t>
+          <t>W106°11'05.39"</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1840,7 +1844,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ISAME</t>
+          <t>ESTRO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1855,12 +1859,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>N46°25'43.25"</t>
+          <t>N46°57'09.42"</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>W106°11'05.39"</t>
+          <t>W109°00'37.65"</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1872,7 +1876,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ESTRO</t>
+          <t>LWT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1887,12 +1891,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>N46°57'09.42"</t>
+          <t>N47°03'10.69"</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>W109°00'37.65"</t>
+          <t>W109°36'22.20"</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1904,7 +1908,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LWT</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1919,12 +1923,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>N47°03'10.69"</t>
+          <t>N47°27'24.85"</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>W109°36'22.20"</t>
+          <t>W115°38'45.76"</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1936,7 +1940,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>AXIRI</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1951,12 +1955,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>N47°27'24.85"</t>
+          <t>N20°26'24.00"</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>W115°38'45.76"</t>
+          <t>W099°04'21.99"</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1968,7 +1972,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RESPE</t>
+          <t>UDMAN</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1983,12 +1987,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>N35°35'30.56"</t>
+          <t>N21°17'20.99"</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>W084°55'12.31"</t>
+          <t>W099°32'36.99"</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2000,7 +2004,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SWAPP</t>
+          <t>TAKSO</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2015,12 +2019,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>N36°36'49.78"</t>
+          <t>N21°35'19.99"</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>W085°10'56.04"</t>
+          <t>W099°42'39.99"</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2032,7 +2036,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>IIU</t>
+          <t>ULUAS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2047,12 +2051,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>N38°06'12.47"</t>
+          <t>N21°50'02.00"</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>W085°34'38.77"</t>
+          <t>W100°09'19.99"</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2064,7 +2068,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MAIZE</t>
+          <t>AVPUS</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2079,12 +2083,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>N38°28'28.30"</t>
+          <t>N22°02'44.00"</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>W086°00'57.39"</t>
+          <t>W100°32'33.00"</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2096,7 +2100,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HONOS</t>
+          <t>SLP</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2111,12 +2115,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>N38°34'19.24"</t>
+          <t>N22°15'23.00"</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>W086°07'55.74"</t>
+          <t>W100°55'49.52"</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2128,7 +2132,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>FRIZN</t>
+          <t>KEPLU</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2143,12 +2147,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>N38°42'47.04"</t>
+          <t>N22°36'07.00"</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>W086°18'04.78"</t>
+          <t>W101°10'56.00"</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2160,7 +2164,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SCOTO</t>
+          <t>IDEAL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2175,12 +2179,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>N39°10'08.93"</t>
+          <t>N23°22'50.99"</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>W086°51'16.99"</t>
+          <t>W101°45'20.00"</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2192,7 +2196,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TTH</t>
+          <t>EMIRA</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2207,12 +2211,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>N39°29'20.19"</t>
+          <t>N23°35'41.00"</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>W087°14'56.44"</t>
+          <t>W101°54'51.99"</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2224,7 +2228,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BLANO</t>
+          <t>KATLA</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2239,12 +2243,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>N39°36'45.74"</t>
+          <t>N24°48'50.00"</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>W087°28'44.55"</t>
+          <t>W102°49'56.99"</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2256,7 +2260,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NEWMY</t>
+          <t>URTIG</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2271,12 +2275,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>N39°51'26.22"</t>
+          <t>N25°13'18.99"</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>W087°56'19.21"</t>
+          <t>W103°08'41.00"</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2288,7 +2292,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CMI</t>
+          <t>TRC</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2303,12 +2307,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>N40°02'04.30"</t>
+          <t>N25°33'50.27"</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>W088°16'33.81"</t>
+          <t>W103°24'30.26"</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2320,7 +2324,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LODGE</t>
+          <t>KITON</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2335,12 +2339,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>N40°08'35.76"</t>
+          <t>N25°54'17.00"</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>W088°31'34.60"</t>
+          <t>W103°40'32.00"</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2352,7 +2356,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MCLEN</t>
+          <t>ETLEP</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2367,12 +2371,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>N40°24'18.98"</t>
+          <t>N26°44'19.00"</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>W089°08'16.55"</t>
+          <t>W104°20'15.99"</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2384,7 +2388,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NINIC</t>
+          <t>LENEM</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2399,12 +2403,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>N40°26'02.03"</t>
+          <t>N27°46'25.00"</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>W089°12'19.69"</t>
+          <t>W105°10'35.99"</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2416,7 +2420,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MACIN</t>
+          <t>CUU</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2431,12 +2435,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>N40°32'27.36"</t>
+          <t>N28°42'58.97"</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>W089°27'33.88"</t>
+          <t>W105°57'31.43"</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2448,7 +2452,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PIA</t>
+          <t>SETMA</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2463,12 +2467,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>N40°40'48.26"</t>
+          <t>N29°07'31.00"</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>W089°47'33.90"</t>
+          <t>W106°03'23.00"</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2480,7 +2484,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>JPAUL</t>
+          <t>BECON</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2495,12 +2499,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>N41°15'03.15"</t>
+          <t>N31°47'17.58"</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>W090°10'22.74"</t>
+          <t>W106°42'45.17"</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2512,7 +2516,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>GENSO</t>
+          <t>RUTER</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2527,12 +2531,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>N41°21'44.35"</t>
+          <t>N32°17'01.43"</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>W090°14'53.18"</t>
+          <t>W106°53'55.21"</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2544,7 +2548,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>NOWSO</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2559,12 +2563,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>N41°31'19.43"</t>
+          <t>N33°16'57.00"</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>W090°21'22.56"</t>
+          <t>W107°16'49.96"</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2576,7 +2580,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CVA</t>
+          <t>CURLY</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2591,12 +2595,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>N41°42'30.77"</t>
+          <t>N35°25'04.75"</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>W090°28'59.92"</t>
+          <t>W107°05'32.33"</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2608,7 +2612,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>LOTTE</t>
+          <t>TANER</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2623,12 +2627,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>N41°56'07.89"</t>
+          <t>N35°52'05.76"</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>W090°33'24.79"</t>
+          <t>W107°25'42.57"</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2640,7 +2644,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DBQ</t>
+          <t>PUMPS</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2655,12 +2659,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>N42°24'05.30"</t>
+          <t>N36°13'06.73"</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>W090°42'32.66"</t>
+          <t>W107°41'35.64"</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2672,7 +2676,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CASSY</t>
+          <t>RSK</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2687,12 +2691,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>N42°44'40.73"</t>
+          <t>N36°44'54.21"</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>W091°01'44.86"</t>
+          <t>W108°05'56.03"</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2704,7 +2708,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>UKN</t>
+          <t>BDROC</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2719,12 +2723,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>N43°16'48.30"</t>
+          <t>N38°27'03.27"</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>W091°32'14.50"</t>
+          <t>W108°36'19.86"</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2736,7 +2740,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>GABDE</t>
+          <t>SINSY</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2751,12 +2755,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>N43°38'50.04"</t>
+          <t>N38°47'01.93"</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>W092°18'26.46"</t>
+          <t>W108°42'26.75"</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2768,7 +2772,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>RST</t>
+          <t>JNC</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2783,12 +2787,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>N43°46'58.45"</t>
+          <t>N39°03'34.43"</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>W092°35'49.05"</t>
+          <t>W108°47'33.26"</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2800,7 +2804,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EGUPE</t>
+          <t>TCH</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2815,12 +2819,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>N43°56'02.36"</t>
+          <t>N40°51'00.93"</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>W092°48'19.54"</t>
+          <t>W111°58'54.86"</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2832,7 +2836,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DELZY</t>
+          <t>TWF</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2847,12 +2851,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>N44°13'54.94"</t>
+          <t>N42°28'47.46"</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>W093°13'16.33"</t>
+          <t>W114°29'22.04"</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2864,7 +2868,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BOSOX</t>
+          <t>DNJ</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2879,12 +2883,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>N42°12'06.79"</t>
+          <t>N44°46'01.60"</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>W071°37'39.64"</t>
+          <t>W116°12'22.55"</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2896,7 +2900,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>GRIPE</t>
+          <t>BEAMO</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2911,12 +2915,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>N42°08'08.87"</t>
+          <t>N45°18'51.91"</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>W071°54'32.47"</t>
+          <t>W117°46'39.59"</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2928,7 +2932,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>GRAYM</t>
+          <t>PDT</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2943,12 +2947,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>N42°06'04.27"</t>
+          <t>N45°41'54.31"</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>W072°01'53.49"</t>
+          <t>W118°56'19.35"</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2960,7 +2964,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>WITNY</t>
+          <t>BOSOX</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2975,12 +2979,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>N42°02'57.82"</t>
+          <t>N42°12'06.79"</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>W072°14'11.96"</t>
+          <t>W071°37'39.64"</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2992,7 +2996,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BDL</t>
+          <t>GRIPE</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3007,12 +3011,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>N41°56'27.63"</t>
+          <t>N42°08'08.87"</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>W072°41'18.88"</t>
+          <t>W071°54'32.47"</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3024,7 +3028,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BRISS</t>
+          <t>GRAYM</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3039,12 +3043,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>N41°42'09.36"</t>
+          <t>N42°06'04.27"</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>W073°01'00.15"</t>
+          <t>W072°01'53.49"</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3056,7 +3060,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>JUDDS</t>
+          <t>WITNY</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3071,12 +3075,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>N41°38'04.82"</t>
+          <t>N42°02'57.82"</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>W073°06'29.68"</t>
+          <t>W072°14'11.96"</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3088,7 +3092,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SOARS</t>
+          <t>BDL</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3103,12 +3107,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>N41°30'42.07"</t>
+          <t>N41°56'27.63"</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>W073°16'17.77"</t>
+          <t>W072°41'18.88"</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3120,7 +3124,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GREKI</t>
+          <t>BRISS</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3135,12 +3139,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>N41°28'48.03"</t>
+          <t>N41°42'09.36"</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>W073°18'50.98"</t>
+          <t>W073°01'00.15"</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3152,7 +3156,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CMK</t>
+          <t>JUDDS</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3167,12 +3171,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>N41°16'48.33"</t>
+          <t>N41°38'04.82"</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>W073°34'52.78"</t>
+          <t>W073°06'29.68"</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3184,7 +3188,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DUEYS</t>
+          <t>SOARS</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3199,12 +3203,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>N41°09'09.46"</t>
+          <t>N41°30'42.07"</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>W073°47'48.52"</t>
+          <t>W073°16'17.77"</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3216,7 +3220,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>JERSY</t>
+          <t>GREKI</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3231,12 +3235,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>N40°47'28.99"</t>
+          <t>N41°28'48.03"</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>W074°23'58.00"</t>
+          <t>W073°18'50.98"</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3248,7 +3252,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SBJ</t>
+          <t>CMK</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3263,12 +3267,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>N40°34'58.96"</t>
+          <t>N41°16'48.33"</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>W074°44'30.45"</t>
+          <t>W073°34'52.78"</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3280,7 +3284,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>DIRPE</t>
+          <t>DUEYS</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3295,12 +3299,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>N40°28'22.94"</t>
+          <t>N41°09'09.46"</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>W074°59'37.03"</t>
+          <t>W073°47'48.52"</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3312,7 +3316,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PTW</t>
+          <t>JERSY</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3327,12 +3331,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>N40°13'20.05"</t>
+          <t>N40°47'28.99"</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>W075°33'36.93"</t>
+          <t>W074°23'58.00"</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3344,7 +3348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BYRDD</t>
+          <t>SBJ</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3359,12 +3363,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>N40°05'31.93"</t>
+          <t>N40°34'58.96"</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>W075°49'07.29"</t>
+          <t>W074°44'30.45"</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3376,7 +3380,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HAAGN</t>
+          <t>DIRPE</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3391,12 +3395,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>N39°57'41.39"</t>
+          <t>N40°28'22.94"</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>W076°04'34.32"</t>
+          <t>W074°59'37.03"</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3408,7 +3412,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PENSY</t>
+          <t>PTW</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3423,12 +3427,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>N39°54'25.96"</t>
+          <t>N40°13'20.05"</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>W076°10'57.13"</t>
+          <t>W075°33'36.93"</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3440,7 +3444,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>EMI</t>
+          <t>BYRDD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3455,12 +3459,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>N39°29'42.02"</t>
+          <t>N40°05'31.93"</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>W076°58'42.85"</t>
+          <t>W075°49'07.29"</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3472,7 +3476,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CSN</t>
+          <t>HAAGN</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3487,12 +3491,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>N38°38'28.32"</t>
+          <t>N39°57'41.39"</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>W077°51'55.79"</t>
+          <t>W076°04'34.32"</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3504,7 +3508,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MOL</t>
+          <t>PENSY</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3519,12 +3523,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>N37°54'01.88"</t>
+          <t>N39°54'25.96"</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>W079°06'24.80"</t>
+          <t>W076°10'57.13"</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3536,7 +3540,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>FLASK</t>
+          <t>EMI</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3551,12 +3555,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>N37°01'03.92"</t>
+          <t>N39°29'42.02"</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>W080°18'58.62"</t>
+          <t>W076°58'42.85"</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3568,7 +3572,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>REAVS</t>
+          <t>CSN</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3583,12 +3587,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>N36°42'10.99"</t>
+          <t>N38°38'28.32"</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>W080°44'12.03"</t>
+          <t>W077°51'55.79"</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3600,7 +3604,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ODF</t>
+          <t>MOL</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3615,12 +3619,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>N34°41'45.14"</t>
+          <t>N37°54'01.88"</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>W083°17'51.58"</t>
+          <t>W079°06'24.80"</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3632,7 +3636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CORCE</t>
+          <t>FLASK</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3647,12 +3651,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>N34°27'34.99"</t>
+          <t>N37°01'03.92"</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>W083°33'10.59"</t>
+          <t>W080°18'58.62"</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3664,7 +3668,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MACEY</t>
+          <t>REAVS</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3679,12 +3683,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>N34°20'00.25"</t>
+          <t>N36°42'10.99"</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>W083°41'19.08"</t>
+          <t>W080°44'12.03"</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3696,7 +3700,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>WOMAC</t>
+          <t>ODF</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3711,12 +3715,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>N34°07'48.86"</t>
+          <t>N34°41'45.14"</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>W083°54'20.77"</t>
+          <t>W083°17'51.58"</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3728,7 +3732,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>LOGEN</t>
+          <t>CORCE</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3743,12 +3747,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>N33°59'16.98"</t>
+          <t>N34°27'34.99"</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>W084°03'24.43"</t>
+          <t>W083°33'10.59"</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3760,7 +3764,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>LFK</t>
+          <t>MACEY</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3775,12 +3779,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>N31°09'44.79"</t>
+          <t>N34°20'00.25"</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>W094°43'00.59"</t>
+          <t>W083°41'19.08"</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3792,7 +3796,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SKKIP</t>
+          <t>WOMAC</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3807,12 +3811,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>N31°14'54.86"</t>
+          <t>N34°07'48.86"</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>W094°39'27.00"</t>
+          <t>W083°54'20.77"</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3824,7 +3828,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ADUKE</t>
+          <t>LOGEN</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3839,12 +3843,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>N31°52'56.75"</t>
+          <t>N33°59'16.98"</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>W094°12'59.28"</t>
+          <t>W084°03'24.43"</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3856,7 +3860,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BERKE</t>
+          <t>LFK</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3871,12 +3875,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>N32°45'18.20"</t>
+          <t>N31°09'44.79"</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>W093°35'50.03"</t>
+          <t>W094°43'00.59"</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3888,7 +3892,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CISAR</t>
+          <t>SKKIP</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3903,12 +3907,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>N33°30'42.79"</t>
+          <t>N31°14'54.86"</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>W093°02'54.64"</t>
+          <t>W094°39'27.00"</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3920,7 +3924,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>WASKO</t>
+          <t>ADUKE</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3935,12 +3939,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>N34°03'36.47"</t>
+          <t>N31°52'56.75"</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>W092°38'38.02"</t>
+          <t>W094°12'59.28"</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3952,7 +3956,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>IGLOO</t>
+          <t>BERKE</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3967,12 +3971,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>N35°49'06.52"</t>
+          <t>N32°45'18.20"</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>W091°44'11.55"</t>
+          <t>W093°35'50.03"</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -3984,7 +3988,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PLIED</t>
+          <t>CISAR</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3999,12 +4003,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>N36°07'59.54"</t>
+          <t>N33°30'42.79"</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>W091°36'41.40"</t>
+          <t>W093°02'54.64"</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4016,7 +4020,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TWRAY</t>
+          <t>WASKO</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4031,12 +4035,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>N37°36'05.06"</t>
+          <t>N34°03'36.47"</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>W091°00'52.53"</t>
+          <t>W092°38'38.02"</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4048,7 +4052,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>IGLOO</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4063,12 +4067,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>N38°51'38.48"</t>
+          <t>N35°49'06.52"</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>W090°28'56.52"</t>
+          <t>W091°44'11.55"</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4080,7 +4084,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>FARGO</t>
+          <t>PLIED</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4095,12 +4099,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>N39°43'17.26"</t>
+          <t>N36°07'59.54"</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>W089°46'35.07"</t>
+          <t>W091°36'41.40"</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4112,7 +4116,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>TWRAY</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4127,12 +4131,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>N39°50'23.03"</t>
+          <t>N37°36'05.06"</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>W089°40'39.84"</t>
+          <t>W091°00'52.53"</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4144,7 +4148,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>PNT</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4159,12 +4163,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>N40°49'16.32"</t>
+          <t>N38°51'38.48"</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>W088°44'00.63"</t>
+          <t>W090°28'56.52"</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4176,7 +4180,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>JOT</t>
+          <t>FARGO</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4191,12 +4195,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>N41°32'47.09"</t>
+          <t>N39°43'17.26"</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>W088°19'06.28"</t>
+          <t>W089°46'35.07"</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4208,7 +4212,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>GILBY</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4223,12 +4227,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>N38°58'23.61"</t>
+          <t>N39°50'23.03"</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>W077°35'20.64"</t>
+          <t>W089°40'39.84"</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4240,7 +4244,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MANNE</t>
+          <t>PNT</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4255,12 +4259,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>N39°00'14.40"</t>
+          <t>N40°49'16.32"</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>W077°41'13.17"</t>
+          <t>W088°44'00.63"</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4272,7 +4276,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>JASEN</t>
+          <t>JOT</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4287,12 +4291,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>N39°03'38.50"</t>
+          <t>N41°32'47.09"</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>W077°52'05.19"</t>
+          <t>W088°19'06.28"</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4304,7 +4308,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>HOAGE</t>
+          <t>GILBY</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4319,12 +4323,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>N39°07'42.96"</t>
+          <t>N38°58'23.61"</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>W078°05'12.41"</t>
+          <t>W077°35'20.64"</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4336,7 +4340,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>TRIXY</t>
+          <t>MANNE</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4351,12 +4355,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>N39°08'21.20"</t>
+          <t>N39°00'14.40"</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>W078°07'16.00"</t>
+          <t>W077°41'13.17"</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4368,7 +4372,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>DRUZZ</t>
+          <t>JASEN</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4383,12 +4387,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>N39°09'48.28"</t>
+          <t>N39°03'38.50"</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>W078°21'28.71"</t>
+          <t>W077°52'05.19"</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4400,7 +4404,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ESL</t>
+          <t>HOAGE</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4415,12 +4419,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>N39°13'31.77"</t>
+          <t>N39°07'42.96"</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>W078°59'22.20"</t>
+          <t>W078°05'12.41"</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4432,7 +4436,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MOTME</t>
+          <t>TRIXY</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4447,12 +4451,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>N39°27'26.47"</t>
+          <t>N39°08'21.20"</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>W079°35'47.23"</t>
+          <t>W078°07'16.00"</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4464,7 +4468,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MGW</t>
+          <t>DRUZZ</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4479,12 +4483,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>N39°33'24.10"</t>
+          <t>N39°09'48.28"</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>W079°51'37.41"</t>
+          <t>W078°21'28.71"</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4496,7 +4500,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>TEDDS</t>
+          <t>ESL</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4511,12 +4515,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>N39°38'18.76"</t>
+          <t>N39°13'31.77"</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>W080°16'34.08"</t>
+          <t>W078°59'22.20"</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4528,7 +4532,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BURGS</t>
+          <t>MOTME</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4543,12 +4547,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>N39°41'54.66"</t>
+          <t>N39°27'26.47"</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>W080°35'10.99"</t>
+          <t>W079°35'47.23"</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4560,7 +4564,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BEALL</t>
+          <t>MGW</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4575,12 +4579,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>N39°47'06.55"</t>
+          <t>N39°33'24.10"</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>W081°02'35.51"</t>
+          <t>W079°51'37.41"</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4592,7 +4596,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>HISOM</t>
+          <t>TEDDS</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4607,12 +4611,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>N39°52'35.48"</t>
+          <t>N39°38'18.76"</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>W081°32'13.19"</t>
+          <t>W080°16'34.08"</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4624,7 +4628,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MUNOE</t>
+          <t>BURGS</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4639,12 +4643,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>N39°53'42.66"</t>
+          <t>N39°41'54.66"</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>W081°38'22.27"</t>
+          <t>W080°35'10.99"</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4656,7 +4660,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ZZV</t>
+          <t>BEALL</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4671,12 +4675,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>N39°56'27.10"</t>
+          <t>N39°47'06.55"</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>W081°53'33.36"</t>
+          <t>W081°02'35.51"</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4688,7 +4692,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CINAB</t>
+          <t>HISOM</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4703,12 +4707,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>N40°00'52.49"</t>
+          <t>N39°52'35.48"</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>W082°08'04.13"</t>
+          <t>W081°32'13.19"</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4720,7 +4724,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>APE</t>
+          <t>MUNOE</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4735,12 +4739,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>N40°09'03.82"</t>
+          <t>N39°53'42.66"</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>W082°35'17.88"</t>
+          <t>W081°38'22.27"</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4752,7 +4756,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>TRAKK</t>
+          <t>ZZV</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4767,12 +4771,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>N40°18'32.35"</t>
+          <t>N39°56'27.10"</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>W083°10'17.75"</t>
+          <t>W081°53'33.36"</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4784,7 +4788,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>WHETT</t>
+          <t>CINAB</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4799,12 +4803,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>N41°09'36.64"</t>
+          <t>N40°00'52.49"</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>W086°35'02.93"</t>
+          <t>W082°08'04.13"</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4816,7 +4820,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MOPER</t>
+          <t>APE</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4831,12 +4835,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>N41°25'52.54"</t>
+          <t>N40°09'03.82"</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>W087°47'12.40"</t>
+          <t>W082°35'17.88"</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4848,7 +4852,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>VORIN</t>
+          <t>TRAKK</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4863,12 +4867,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>N41°32'52.81"</t>
+          <t>N40°18'32.35"</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>W089°20'10.95"</t>
+          <t>W083°10'17.75"</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4880,7 +4884,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>IOW</t>
+          <t>WHETT</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4895,12 +4899,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>N41°31'08.26"</t>
+          <t>N41°09'36.64"</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>W091°36'47.69"</t>
+          <t>W086°35'02.93"</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4912,7 +4916,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>DSM</t>
+          <t>MOPER</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4927,12 +4931,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>N41°26'15.44"</t>
+          <t>N41°25'52.54"</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>W093°38'54.80"</t>
+          <t>W087°47'12.40"</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4944,7 +4948,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>OBH</t>
+          <t>VORIN</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4959,12 +4963,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>N41°22'32.64"</t>
+          <t>N41°32'52.81"</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>W098°21'12.94"</t>
+          <t>W089°20'10.95"</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4976,7 +4980,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ELJAY</t>
+          <t>IOW</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4991,12 +4995,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>N41°13'30.37"</t>
+          <t>N41°31'08.26"</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>W101°13'17.26"</t>
+          <t>W091°36'47.69"</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5008,7 +5012,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SNY</t>
+          <t>DSM</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5023,12 +5027,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>N41°05'48.00"</t>
+          <t>N41°26'15.44"</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>W102°58'58.80"</t>
+          <t>W093°38'54.80"</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5040,7 +5044,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>FROGS</t>
+          <t>OBH</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5055,12 +5059,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>N40°31'12.12"</t>
+          <t>N41°22'32.64"</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>W105°53'41.21"</t>
+          <t>W098°21'12.94"</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5072,7 +5076,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>EKR</t>
+          <t>ELJAY</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5087,12 +5091,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>N40°04'02.79"</t>
+          <t>N41°13'30.37"</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>W107°55'29.81"</t>
+          <t>W101°13'17.26"</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5104,7 +5108,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>DTA</t>
+          <t>SNY</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5119,12 +5123,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>N39°18'07.96"</t>
+          <t>N41°05'48.00"</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>W112°30'20.00"</t>
+          <t>W102°58'58.80"</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5136,7 +5140,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>PAWLY</t>
+          <t>FROGS</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5151,12 +5155,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>N39°11'49.70"</t>
+          <t>N40°31'12.12"</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>W113°26'23.38"</t>
+          <t>W105°53'41.21"</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5168,7 +5172,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MVA</t>
+          <t>EKR</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5183,12 +5187,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>N38°33'55.07"</t>
+          <t>N40°04'02.79"</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>W118°01'58.27"</t>
+          <t>W107°55'29.81"</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5200,7 +5204,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>YESKA</t>
+          <t>DTA</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5215,12 +5219,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>N61°00'00.78"</t>
+          <t>N39°18'07.96"</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>W149°20'01.84"</t>
+          <t>W112°30'20.00"</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5232,7 +5236,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>REMBY</t>
+          <t>PAWLY</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5247,12 +5251,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>N60°40'00.00"</t>
+          <t>N39°11'49.70"</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>W146°00'00.00"</t>
+          <t>W113°26'23.38"</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5264,7 +5268,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>COHIL</t>
+          <t>MVA</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5279,12 +5283,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>N60°06'31.00"</t>
+          <t>N38°33'55.07"</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>W139°00'00.00"</t>
+          <t>W118°01'58.27"</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5296,7 +5300,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>GOROV</t>
+          <t>YESKA</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5311,12 +5315,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>N59°18'21.10"</t>
+          <t>N61°00'00.78"</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>W133°00'02.80"</t>
+          <t>W149°20'01.84"</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5328,7 +5332,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>OMLOK</t>
+          <t>REMBY</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5343,12 +5347,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>N58°46'45.59"</t>
+          <t>N60°40'00.00"</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>W130°00'00.00"</t>
+          <t>W146°00'00.00"</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5360,7 +5364,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BINGA</t>
+          <t>COHIL</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5375,12 +5379,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>N57°42'07.09"</t>
+          <t>N60°06'31.00"</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>W125°00'00.00"</t>
+          <t>W139°00'00.00"</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5392,7 +5396,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>LEPET</t>
+          <t>GOROV</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5407,12 +5411,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>N56°25'35.90"</t>
+          <t>N59°18'21.10"</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>W120°16'15.72"</t>
+          <t>W133°00'02.80"</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5424,7 +5428,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>NUBEG</t>
+          <t>OMLOK</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5439,12 +5443,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>N54°16'51.69"</t>
+          <t>N58°46'45.59"</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>W113°59'03.32"</t>
+          <t>W130°00'00.00"</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5456,7 +5460,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>YWV</t>
+          <t>BINGA</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5471,12 +5475,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>N52°58'53.00"</t>
+          <t>N57°42'07.09"</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>W110°49'59.79"</t>
+          <t>W125°00'00.00"</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5488,7 +5492,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>VLN</t>
+          <t>LEPET</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5503,12 +5507,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>N50°40'01.22"</t>
+          <t>N56°25'35.90"</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>W104°53'22.96"</t>
+          <t>W120°16'15.72"</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5520,7 +5524,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MOT</t>
+          <t>NUBEG</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5535,12 +5539,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>N48°15'37.20"</t>
+          <t>N54°16'51.69"</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>W101°17'13.44"</t>
+          <t>W113°59'03.32"</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5552,7 +5556,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PABIC</t>
+          <t>YWV</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5567,12 +5571,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>N48°03'07.54"</t>
+          <t>N52°58'53.00"</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>W101°11'54.34"</t>
+          <t>W110°49'59.79"</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5584,7 +5588,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>HIDEL</t>
+          <t>VLN</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5599,12 +5603,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>N48°01'45.05"</t>
+          <t>N50°40'01.22"</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>W101°11'19.40"</t>
+          <t>W104°53'22.96"</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5616,7 +5620,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TERTL</t>
+          <t>MOT</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5631,12 +5635,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>N47°34'16.39"</t>
+          <t>N48°15'37.20"</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>W100°59'47.62"</t>
+          <t>W101°17'13.44"</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -5648,7 +5652,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>WASHR</t>
+          <t>PABIC</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5663,12 +5667,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>N47°18'26.68"</t>
+          <t>N48°03'07.54"</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>W100°53'15.50"</t>
+          <t>W101°11'54.34"</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5680,7 +5684,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>WILTN</t>
+          <t>HIDEL</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5695,12 +5699,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>N47°04'58.09"</t>
+          <t>N48°01'45.05"</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>W100°47'43.84"</t>
+          <t>W101°11'19.40"</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -5712,7 +5716,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>FIKAG</t>
+          <t>TERTL</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5727,12 +5731,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>N46°55'20.20"</t>
+          <t>N47°34'16.39"</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>W100°43'48.91"</t>
+          <t>W100°59'47.62"</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -5744,7 +5748,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BIS</t>
+          <t>WASHR</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5759,12 +5763,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>N46°45'42.34"</t>
+          <t>N47°18'26.68"</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>W100°39'55.46"</t>
+          <t>W100°53'15.50"</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -5776,7 +5780,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MOFIT</t>
+          <t>WILTN</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5791,12 +5795,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>N46°33'01.37"</t>
+          <t>N47°04'58.09"</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>W100°17'28.81"</t>
+          <t>W100°47'43.84"</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -5808,7 +5812,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>WISEK</t>
+          <t>FIKAG</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5823,12 +5827,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>N46°22'49.35"</t>
+          <t>N46°55'20.20"</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>W099°59'38.99"</t>
+          <t>W100°43'48.91"</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -5840,7 +5844,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>IRIWY</t>
+          <t>BIS</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5855,12 +5859,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>N46°03'11.72"</t>
+          <t>N46°45'42.34"</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>W099°25'52.63"</t>
+          <t>W100°39'55.46"</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -5872,7 +5876,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MUNEF</t>
+          <t>MOFIT</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5887,12 +5891,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>N45°41'21.22"</t>
+          <t>N46°33'01.37"</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>W098°49'04.75"</t>
+          <t>W100°17'28.81"</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -5904,7 +5908,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>FSD</t>
+          <t>WISEK</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5919,12 +5923,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>N43°38'58.16"</t>
+          <t>N46°22'49.35"</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>W096°46'52.05"</t>
+          <t>W099°59'38.99"</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -5936,7 +5940,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>EYHUX</t>
+          <t>IRIWY</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5951,12 +5955,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>N42°26'08.02"</t>
+          <t>N46°03'11.72"</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>W095°01'09.77"</t>
+          <t>W099°25'52.63"</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -5968,7 +5972,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>JAVAS</t>
+          <t>MUNEF</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5983,12 +5987,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>N40°45'56.25"</t>
+          <t>N45°41'21.22"</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>W092°47'19.80"</t>
+          <t>W098°49'04.75"</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6000,7 +6004,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CHASY</t>
+          <t>FSD</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6015,12 +6019,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>N40°41'38.25"</t>
+          <t>N43°38'58.16"</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>W092°41'55.11"</t>
+          <t>W096°46'52.05"</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6032,7 +6036,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SKBOZ</t>
+          <t>EYHUX</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6047,12 +6051,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>N40°34'52.20"</t>
+          <t>N42°26'08.02"</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>W092°33'26.15"</t>
+          <t>W095°01'09.77"</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6064,7 +6068,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>COLIE</t>
+          <t>JAVAS</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6079,12 +6083,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>N40°16'50.12"</t>
+          <t>N40°45'56.25"</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>W092°11'01.93"</t>
+          <t>W092°47'19.80"</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6096,7 +6100,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>TWAIN</t>
+          <t>CHASY</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -6111,12 +6115,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>N39°40'20.55"</t>
+          <t>N40°41'38.25"</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>W091°26'35.13"</t>
+          <t>W092°41'55.11"</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6128,7 +6132,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PLESS</t>
+          <t>SKBOZ</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6143,12 +6147,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>N37°48'34.48"</t>
+          <t>N40°34'52.20"</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>W088°57'47.48"</t>
+          <t>W092°33'26.15"</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6160,7 +6164,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>COLIE</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6175,12 +6179,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>N36°08'13.05"</t>
+          <t>N40°16'50.12"</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>W086°41'05.17"</t>
+          <t>W092°11'01.93"</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -6192,7 +6196,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SLI</t>
+          <t>TWAIN</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6207,12 +6211,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>N33°46'59.87"</t>
+          <t>N39°40'20.55"</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>W118°03'17.11"</t>
+          <t>W091°26'35.13"</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6224,7 +6228,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>AHEIM</t>
+          <t>PLESS</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6239,12 +6243,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>N33°49'13.13"</t>
+          <t>N37°48'34.48"</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>W117°54'43.01"</t>
+          <t>W088°57'47.48"</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -6256,7 +6260,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>OLLIE</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6271,12 +6275,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>N33°50'46.55"</t>
+          <t>N36°08'13.05"</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>W117°48'41.00"</t>
+          <t>W086°41'05.17"</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6288,7 +6292,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>POXKU</t>
+          <t>SLI</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6303,12 +6307,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>N33°51'13.47"</t>
+          <t>N33°46'59.87"</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>W117°46'56.49"</t>
+          <t>W118°03'17.11"</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6320,7 +6324,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>EBITE</t>
+          <t>AHEIM</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6335,12 +6339,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>N33°51'40.73"</t>
+          <t>N33°49'13.13"</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>W117°45'03.23"</t>
+          <t>W117°54'43.01"</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6352,7 +6356,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>PDZ</t>
+          <t>OLLIE</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6367,12 +6371,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>N33°55'06.01"</t>
+          <t>N33°50'46.55"</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>W117°31'47.99"</t>
+          <t>W117°48'41.00"</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6384,7 +6388,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>CIVET</t>
+          <t>POXKU</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6399,12 +6403,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>N34°02'03.93"</t>
+          <t>N33°51'13.47"</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>W117°23'27.17"</t>
+          <t>W117°46'56.49"</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6416,7 +6420,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RUSTT</t>
+          <t>EBITE</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6431,12 +6435,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>N34°02'53.62"</t>
+          <t>N33°51'40.73"</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>W117°14'32.83"</t>
+          <t>W117°45'03.23"</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -6448,7 +6452,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>PIONE</t>
+          <t>PDZ</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6463,12 +6467,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>N34°05'40.10"</t>
+          <t>N33°55'06.01"</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>W116°44'19.64"</t>
+          <t>W117°31'47.99"</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6480,7 +6484,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>GEEYY</t>
+          <t>CIVET</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6495,12 +6499,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>N34°50'11.79"</t>
+          <t>N34°02'03.93"</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>W091°10'47.67"</t>
+          <t>W117°23'27.17"</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -6512,7 +6516,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>RUSTT</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6527,12 +6531,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>N35°00'54.42"</t>
+          <t>N34°02'53.62"</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>W089°58'59.55"</t>
+          <t>W117°14'32.83"</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6544,7 +6548,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>BLUIT</t>
+          <t>PIONE</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6559,12 +6563,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>N47°24'21.36"</t>
+          <t>N34°05'40.10"</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>W120°25'05.51"</t>
+          <t>W116°44'19.64"</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -6576,7 +6580,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>EPH</t>
+          <t>GEEYY</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6591,12 +6595,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>N47°22'40.50"</t>
+          <t>N34°50'11.79"</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>W119°25'26.41"</t>
+          <t>W091°10'47.67"</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6608,7 +6612,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>PECOK</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6623,12 +6627,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>N44°00'27.67"</t>
+          <t>N35°00'54.42"</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>W085°43'14.71"</t>
+          <t>W089°58'59.55"</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -6640,7 +6644,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>LEATO</t>
+          <t>BLUIT</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6655,12 +6659,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>N43°43'16.90"</t>
+          <t>N47°24'21.36"</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>W084°31'49.35"</t>
+          <t>W120°25'05.51"</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -6672,7 +6676,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>DIRKS</t>
+          <t>EPH</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6687,12 +6691,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>N43°29'57.42"</t>
+          <t>N47°22'40.50"</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>W083°38'52.95"</t>
+          <t>W119°25'26.41"</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -6704,7 +6708,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ECK</t>
+          <t>PECOK</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6719,12 +6723,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>N43°15'21.18"</t>
+          <t>N44°00'27.67"</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>W082°43'04.54"</t>
+          <t>W085°43'14.71"</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -6736,7 +6740,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>YXU</t>
+          <t>LEATO</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6751,12 +6755,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>N43°02'16.47"</t>
+          <t>N43°43'16.90"</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>W081°08'56.14"</t>
+          <t>W084°31'49.35"</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -6768,7 +6772,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>LESUB</t>
+          <t>DIRKS</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6783,12 +6787,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>N43°01'00.29"</t>
+          <t>N43°29'57.42"</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>W080°32'58.76"</t>
+          <t>W083°38'52.95"</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -6800,7 +6804,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>ECK</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6815,12 +6819,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>N42°55'44.38"</t>
+          <t>N43°15'21.18"</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>W078°38'46.82"</t>
+          <t>W082°43'04.54"</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -6832,7 +6836,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>DALEE</t>
+          <t>YXU</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6847,12 +6851,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>N42°45'22.73"</t>
+          <t>N43°02'16.47"</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>W078°18'12.85"</t>
+          <t>W081°08'56.14"</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -6864,7 +6868,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>BURST</t>
+          <t>LESUB</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -6879,12 +6883,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>N42°31'20.40"</t>
+          <t>N43°01'00.29"</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>W077°50'43.29"</t>
+          <t>W080°32'58.76"</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -6896,7 +6900,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>HORNE</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -6911,12 +6915,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>N42°23'21.25"</t>
+          <t>N42°55'44.38"</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>W077°35'16.19"</t>
+          <t>W078°38'46.82"</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -6928,7 +6932,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>THINK</t>
+          <t>DALEE</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -6943,12 +6947,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>N42°13'43.44"</t>
+          <t>N42°45'22.73"</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>W077°16'49.20"</t>
+          <t>W078°18'12.85"</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -6960,7 +6964,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ULW</t>
+          <t>BURST</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -6975,12 +6979,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>N42°05'38.95"</t>
+          <t>N42°31'20.40"</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>W077°01'29.30"</t>
+          <t>W077°50'43.29"</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -6992,7 +6996,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>BIPOD</t>
+          <t>HORNE</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -7007,12 +7011,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>N41°52'41.57"</t>
+          <t>N42°23'21.25"</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>W076°40'04.22"</t>
+          <t>W077°35'16.19"</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7024,7 +7028,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>TWIIN</t>
+          <t>THINK</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -7039,12 +7043,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>N41°44'57.85"</t>
+          <t>N42°13'43.44"</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>W076°27'25.15"</t>
+          <t>W077°16'49.20"</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -7056,7 +7060,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>LACIE</t>
+          <t>ULW</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -7071,12 +7075,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>N41°33'14.95"</t>
+          <t>N42°05'38.95"</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>W076°08'24.38"</t>
+          <t>W077°01'29.30"</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -7088,7 +7092,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>LOPEZ</t>
+          <t>BIPOD</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -7103,12 +7107,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>N41°26'35.68"</t>
+          <t>N41°52'41.57"</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>W075°57'42.12"</t>
+          <t>W076°40'04.22"</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -7120,7 +7124,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>LVZ</t>
+          <t>TWIIN</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -7135,12 +7139,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>N41°16'22.08"</t>
+          <t>N41°44'57.85"</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>W075°41'22.08"</t>
+          <t>W076°27'25.15"</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -7152,7 +7156,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>BUNKA</t>
+          <t>LACIE</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -7167,12 +7171,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>N39°04'57.32"</t>
+          <t>N41°33'14.95"</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>W087°09'06.58"</t>
+          <t>W076°08'24.38"</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -7184,7 +7188,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>HNB</t>
+          <t>LOPEZ</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -7199,12 +7203,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>N38°15'01.75"</t>
+          <t>N41°26'35.68"</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>W086°57'22.30"</t>
+          <t>W075°57'42.12"</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -7216,7 +7220,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>APALO</t>
+          <t>LVZ</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -7231,12 +7235,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>N38°00'20.59"</t>
+          <t>N41°16'22.08"</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>W086°51'35.27"</t>
+          <t>W075°41'22.08"</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -7248,7 +7252,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>LOONE</t>
+          <t>DBQ</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -7263,12 +7267,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>N37°44'14.43"</t>
+          <t>N42°24'05.30"</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>W086°45'18.02"</t>
+          <t>W090°42'32.66"</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -7280,7 +7284,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>RENRO</t>
+          <t>LOTTE</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -7295,12 +7299,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>N37°28'50.53"</t>
+          <t>N41°56'07.89"</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>W086°39'19.25"</t>
+          <t>W090°33'24.79"</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -7312,7 +7316,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>BWG</t>
+          <t>CVA</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -7327,12 +7331,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>N36°55'43.46"</t>
+          <t>N41°42'30.77"</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>W086°26'36.36"</t>
+          <t>W090°28'59.92"</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -7344,7 +7348,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>RACEY</t>
+          <t>NOWSO</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -7359,12 +7363,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>N41°25'00.94"</t>
+          <t>N41°31'19.43"</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>W073°11'38.10"</t>
+          <t>W090°21'22.56"</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -7376,7 +7380,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SORRY</t>
+          <t>GENSO</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -7391,12 +7395,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>N41°28'43.10"</t>
+          <t>N41°21'44.35"</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>W073°01'02.67"</t>
+          <t>W090°14'53.18"</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -7408,7 +7412,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>YALER</t>
+          <t>JPAUL</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -7423,12 +7427,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>N41°30'56.61"</t>
+          <t>N41°15'03.15"</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>W072°54'39.09"</t>
+          <t>W090°10'22.74"</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -7440,7 +7444,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>HFD</t>
+          <t>PIA</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -7455,12 +7459,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>N41°38'27.97"</t>
+          <t>N40°40'48.26"</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>W072°32'50.70"</t>
+          <t>W089°47'33.90"</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -7472,7 +7476,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>LIN</t>
+          <t>MACIN</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -7487,12 +7491,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>N38°04'28.51"</t>
+          <t>N40°32'27.36"</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>W121°00'13.88"</t>
+          <t>W089°27'33.88"</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -7504,7 +7508,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SEFFY</t>
+          <t>NINIC</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -7519,12 +7523,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>N51°23'24.47"</t>
+          <t>N40°26'02.03"</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>W107°08'15.94"</t>
+          <t>W089°12'19.69"</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -7536,7 +7540,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>FUDGY</t>
+          <t>MCLEN</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -7551,12 +7555,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>N52°13'07.50"</t>
+          <t>N40°24'18.98"</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>W110°00'00.00"</t>
+          <t>W089°08'16.55"</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -7568,7 +7572,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>OMROD</t>
+          <t>LODGE</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -7583,12 +7587,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>N53°00'20.11"</t>
+          <t>N40°08'35.76"</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>W113°05'35.92"</t>
+          <t>W088°31'34.60"</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -7600,7 +7604,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>YEG</t>
+          <t>CMI</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -7615,12 +7619,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>N53°11'08.09"</t>
+          <t>N40°02'04.30"</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>W113°52'00.62"</t>
+          <t>W088°16'33.81"</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -7632,7 +7636,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>WYLDE</t>
+          <t>NEWMY</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -7647,12 +7651,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>N53°36'52.20"</t>
+          <t>N39°51'26.22"</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>W114°53'38.40"</t>
+          <t>W087°56'19.21"</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -7664,7 +7668,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>YQU</t>
+          <t>BLANO</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -7679,12 +7683,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>N55°10'27.15"</t>
+          <t>N39°36'45.74"</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>W119°01'48.74"</t>
+          <t>W087°28'44.55"</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -7696,7 +7700,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ELTEX</t>
+          <t>TTH</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -7711,12 +7715,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>N56°53'57.14"</t>
+          <t>N39°29'20.19"</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>W125°00'00.00"</t>
+          <t>W087°14'56.44"</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -7728,7 +7732,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>KEVPO</t>
+          <t>BUNKA</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -7743,12 +7747,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>N58°01'36.32"</t>
+          <t>N39°04'57.32"</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>W130°00'00.00"</t>
+          <t>W087°09'06.58"</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -7760,7 +7764,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>MITOM</t>
+          <t>HNB</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -7775,12 +7779,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>N58°19'14.70"</t>
+          <t>N38°15'01.75"</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>W131°32'02.90"</t>
+          <t>W086°57'22.30"</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -7792,7 +7796,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>DEEJA</t>
+          <t>APALO</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -7807,12 +7811,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>N58°54'08.00"</t>
+          <t>N38°00'20.59"</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>W135°00'00.00"</t>
+          <t>W086°51'35.27"</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -7824,7 +7828,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>YAK</t>
+          <t>LOONE</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -7839,12 +7843,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>N59°30'38.98"</t>
+          <t>N37°44'14.43"</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>W139°38'53.27"</t>
+          <t>W086°45'18.02"</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -7856,7 +7860,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>KATAT</t>
+          <t>RENRO</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -7871,12 +7875,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>N60°15'29.17"</t>
+          <t>N37°28'50.53"</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>W144°42'18.77"</t>
+          <t>W086°39'19.25"</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -7888,7 +7892,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>CASEL</t>
+          <t>BWG</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -7903,12 +7907,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>N60°19'52.06"</t>
+          <t>N36°55'43.46"</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>W145°17'54.25"</t>
+          <t>W086°26'36.36"</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -7920,7 +7924,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>JOH</t>
+          <t>RACEY</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -7935,12 +7939,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>N60°28'51.42"</t>
+          <t>N41°25'00.94"</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>W146°35'57.60"</t>
+          <t>W073°11'38.10"</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -7952,7 +7956,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>CREEL</t>
+          <t>SORRY</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -7967,12 +7971,12 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>N40°26'50.50"</t>
+          <t>N41°28'43.10"</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>W073°33'10.67"</t>
+          <t>W073°01'02.67"</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -7984,7 +7988,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>RIFLE</t>
+          <t>YALER</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -7999,12 +8003,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>N40°41'24.17"</t>
+          <t>N41°30'56.61"</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>W072°34'54.89"</t>
+          <t>W072°54'39.09"</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -8016,7 +8020,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>HTO</t>
+          <t>HFD</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -8031,12 +8035,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>N40°55'08.38"</t>
+          <t>N41°38'27.97"</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>W072°19'00.13"</t>
+          <t>W072°32'50.70"</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -8048,7 +8052,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>PARCH</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -8063,12 +8067,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>N41°05'57.21"</t>
+          <t>N38°04'28.51"</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>W072°07'14.66"</t>
+          <t>W121°00'13.88"</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -8080,7 +8084,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>TRAIT</t>
+          <t>SEFFY</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -8095,12 +8099,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>N41°17'04.75"</t>
+          <t>N51°23'24.47"</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>W071°55'03.35"</t>
+          <t>W107°08'15.94"</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -8112,7 +8116,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>PVD</t>
+          <t>FUDGY</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -8127,12 +8131,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>N41°43'27.63"</t>
+          <t>N52°13'07.50"</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>W071°25'46.70"</t>
+          <t>W110°00'00.00"</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -8144,7 +8148,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>OMROD</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -8159,12 +8163,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>N42°21'26.82"</t>
+          <t>N53°00'20.11"</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>W070°59'22.37"</t>
+          <t>W113°05'35.92"</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -8176,7 +8180,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>COPLY</t>
+          <t>YEG</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -8191,12 +8195,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>N42°29'52.21"</t>
+          <t>N53°11'08.09"</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>W070°33'28.56"</t>
+          <t>W113°52'00.62"</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -8208,7 +8212,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>SCUPP</t>
+          <t>WYLDE</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -8223,12 +8227,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>N42°36'11.01"</t>
+          <t>N53°36'52.20"</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>W070°13'49.34"</t>
+          <t>W114°53'38.40"</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -8240,7 +8244,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>CANAL</t>
+          <t>YQU</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -8255,12 +8259,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>N42°40'08.51"</t>
+          <t>N55°10'27.15"</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>W070°01'21.75"</t>
+          <t>W119°01'48.74"</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -8272,7 +8276,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>TUSKY</t>
+          <t>ELTEX</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -8287,12 +8291,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>N43°33'53.99"</t>
+          <t>N56°53'57.14"</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>W067°00'00.00"</t>
+          <t>W125°00'00.00"</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -8304,7 +8308,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>OMSAT</t>
+          <t>KEVPO</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -8319,12 +8323,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>N47°00'00.00"</t>
+          <t>N58°01'36.32"</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>W052°00'00.00"</t>
+          <t>W130°00'00.00"</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -8336,7 +8340,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>47N050W</t>
+          <t>MITOM</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -8351,12 +8355,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>N47°30'00.00"</t>
+          <t>N58°19'14.70"</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>W050°00'00.00"</t>
+          <t>W131°32'02.90"</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -8368,7 +8372,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>49N040W</t>
+          <t>DEEJA</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -8383,12 +8387,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>N49°30'00.00"</t>
+          <t>N58°54'08.00"</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>W040°00'00.00"</t>
+          <t>W135°00'00.00"</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -8400,7 +8404,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>51N030W</t>
+          <t>YAK</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -8415,12 +8419,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>N51°30'00.00"</t>
+          <t>N59°30'38.98"</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>W030°00'00.00"</t>
+          <t>W139°38'53.27"</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -8432,7 +8436,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>52N020W</t>
+          <t>KATAT</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -8447,12 +8451,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>N52°30'00.00"</t>
+          <t>N60°15'29.17"</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>W020°00'00.00"</t>
+          <t>W144°42'18.77"</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -8464,7 +8468,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>LIMRI</t>
+          <t>CASEL</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -8479,12 +8483,12 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>N52°00'00.00"</t>
+          <t>N60°19'52.06"</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>W015°00'00.00"</t>
+          <t>W145°17'54.25"</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -8496,7 +8500,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>XETBO</t>
+          <t>JOH</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -8511,12 +8515,12 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>N52°00'00.00"</t>
+          <t>N60°28'51.42"</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>W014°00'00.00"</t>
+          <t>W146°35'57.60"</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -8528,7 +8532,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>DOLIP</t>
+          <t>CREEL</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -8543,12 +8547,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>N52°00'00.00"</t>
+          <t>N40°26'50.50"</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>W012°00'00.00"</t>
+          <t>W073°33'10.67"</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -8560,7 +8564,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>LINRA</t>
+          <t>RIFLE</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -8575,12 +8579,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>N51°34'47.00"</t>
+          <t>N40°41'24.17"</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>W010°01'55.99"</t>
+          <t>W072°34'54.89"</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -8592,7 +8596,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>LESLU</t>
+          <t>HTO</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -8607,12 +8611,12 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>N51°00'00.00"</t>
+          <t>N40°55'08.38"</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>W008°00'00.00"</t>
+          <t>W072°19'00.13"</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -8624,7 +8628,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>INSUN</t>
+          <t>PARCH</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -8639,12 +8643,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>N50°23'43.00"</t>
+          <t>N41°05'57.21"</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>W006°19'23.99"</t>
+          <t>W072°07'14.66"</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -8656,7 +8660,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>LND</t>
+          <t>TRAIT</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -8671,12 +8675,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>N50°08'10.99"</t>
+          <t>N41°17'04.75"</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>W005°38'13.00"</t>
+          <t>W071°55'03.35"</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -8688,7 +8692,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>NAKID</t>
+          <t>PVD</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -8703,12 +8707,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>N49°42'54.00"</t>
+          <t>N41°43'27.63"</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>W004°37'22.99"</t>
+          <t>W071°25'46.70"</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -8720,7 +8724,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ANNET</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -8735,12 +8739,12 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>N49°39'04.99"</t>
+          <t>N42°21'26.82"</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>W004°00'05.00"</t>
+          <t>W070°59'22.37"</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -8752,7 +8756,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>UVSUV</t>
+          <t>COPLY</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -8767,12 +8771,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>N49°29'16.99"</t>
+          <t>N42°29'52.21"</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>W001°40'27.99"</t>
+          <t>W070°33'28.56"</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -8784,7 +8788,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>INGOR</t>
+          <t>SCUPP</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -8799,12 +8803,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>N49°21'52.00"</t>
+          <t>N42°36'11.01"</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>W000°15'00.00"</t>
+          <t>W070°13'49.34"</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -8816,7 +8820,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>LUKIP</t>
+          <t>CANAL</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -8831,12 +8835,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>N49°18'56.99"</t>
+          <t>N42°40'08.51"</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>E000°29'46.99"</t>
+          <t>W070°01'21.75"</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -8848,7 +8852,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ERIXU</t>
+          <t>TUSKY</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -8863,12 +8867,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>N48°05'00.00"</t>
+          <t>N43°33'53.99"</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>E002°15'35.00"</t>
+          <t>W067°00'00.00"</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -8880,7 +8884,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ARKIP</t>
+          <t>OMSAT</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -8895,12 +8899,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>N47°37'59.99"</t>
+          <t>N47°00'00.00"</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>E002°02'10.99"</t>
+          <t>W052°00'00.00"</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -8912,7 +8916,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>BALAN</t>
+          <t>47N050W</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -8927,12 +8931,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>N46°30'57.99"</t>
+          <t>N47°30'00.00"</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>E001°02'00.00"</t>
+          <t>W050°00'00.00"</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -8944,7 +8948,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>FOUCO</t>
+          <t>49N040W</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -8959,12 +8963,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>N45°45'16.99"</t>
+          <t>N49°30'00.00"</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>E000°28'49.99"</t>
+          <t>W040°00'00.00"</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -8976,7 +8980,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>OSMOB</t>
+          <t>51N030W</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -8991,12 +8995,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>N44°38'57.00"</t>
+          <t>N51°30'00.00"</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>W000°20'18.00"</t>
+          <t>W030°00'00.00"</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -9008,7 +9012,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>BIDAC</t>
+          <t>52N020W</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -9023,12 +9027,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>N43°25'01.99"</t>
+          <t>N52°30'00.00"</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>W001°08'08.00"</t>
+          <t>W020°00'00.00"</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -9040,7 +9044,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ARVID</t>
+          <t>LIMRI</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -9055,12 +9059,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>N43°04'33.99"</t>
+          <t>N52°00'00.00"</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>W001°27'53.00"</t>
+          <t>W015°00'00.00"</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -9072,7 +9076,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>PPN</t>
+          <t>XETBO</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -9087,12 +9091,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>N42°44'02.00"</t>
+          <t>N52°00'00.00"</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>W001°42'07.00"</t>
+          <t>W014°00'00.00"</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -9104,7 +9108,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>NOLSA</t>
+          <t>DOLIP</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -9119,12 +9123,12 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>N42°25'39.00"</t>
+          <t>N52°00'00.00"</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>W001°54'27.00"</t>
+          <t>W012°00'00.00"</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -9136,7 +9140,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ALEPO</t>
+          <t>LINRA</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -9151,12 +9155,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>N42°20'36.99"</t>
+          <t>N51°34'47.00"</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>W001°57'48.00"</t>
+          <t>W010°01'55.99"</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -9168,7 +9172,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>VASUM</t>
+          <t>LESLU</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -9183,12 +9187,12 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>N42°16'18.99"</t>
+          <t>N51°00'00.00"</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>W002°00'39.99"</t>
+          <t>W008°00'00.00"</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -9200,7 +9204,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>GARVU</t>
+          <t>INSUN</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -9215,12 +9219,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>N42°10'15.99"</t>
+          <t>N50°23'43.00"</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>W002°04'40.00"</t>
+          <t>W006°19'23.99"</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -9232,7 +9236,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>BANEV</t>
+          <t>LND</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -9247,12 +9251,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>N41°30'08.99"</t>
+          <t>N50°08'10.99"</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>W002°30'52.00"</t>
+          <t>W005°38'13.00"</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -9264,7 +9268,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>BAN</t>
+          <t>NAKID</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -9279,12 +9283,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>N41°19'25.00"</t>
+          <t>N49°42'54.00"</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>W002°37'47.00"</t>
+          <t>W004°37'22.99"</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -9296,7 +9300,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>GOTOR</t>
+          <t>ANNET</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -9311,12 +9315,12 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>N40°06'38.99"</t>
+          <t>N49°39'04.99"</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>W003°43'28.00"</t>
+          <t>W004°00'05.00"</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -9328,7 +9332,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>KAMPO</t>
+          <t>UVSUV</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -9343,12 +9347,12 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>N39°44'00.00"</t>
+          <t>N49°29'16.99"</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>W004°03'18.99"</t>
+          <t>W001°40'27.99"</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -9360,7 +9364,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>MONTO</t>
+          <t>INGOR</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -9375,12 +9379,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>N39°13'17.99"</t>
+          <t>N49°21'52.00"</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>W004°29'49.00"</t>
+          <t>W000°15'00.00"</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -9392,7 +9396,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>MOLIN</t>
+          <t>LUKIP</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -9407,12 +9411,12 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>N39°00'00.00"</t>
+          <t>N49°18'56.99"</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>W004°41'08.99"</t>
+          <t>E000°29'46.99"</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -9424,7 +9428,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>HIJ</t>
+          <t>ERIXU</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -9439,12 +9443,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>N38°30'29.00"</t>
+          <t>N48°05'00.00"</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>W005°05'58.99"</t>
+          <t>E002°15'35.00"</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -9456,7 +9460,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SVL</t>
+          <t>ARKIP</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -9471,12 +9475,12 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>N37°25'39.00"</t>
+          <t>N47°37'59.99"</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>W005°45'45.00"</t>
+          <t>E002°02'10.99"</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -9488,7 +9492,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>SANTA</t>
+          <t>BALAN</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -9503,12 +9507,12 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>N37°40'07.00"</t>
+          <t>N46°30'57.99"</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>W006°17'53.99"</t>
+          <t>E001°02'00.00"</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -9520,7 +9524,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ROSAL</t>
+          <t>FOUCO</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -9535,12 +9539,12 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>N38°01'16.99"</t>
+          <t>N45°45'16.99"</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>W007°06'03.99"</t>
+          <t>E000°28'49.99"</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -9552,7 +9556,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>EXONA</t>
+          <t>OSMOB</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -9567,12 +9571,12 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>N38°54'15.99"</t>
+          <t>N44°38'57.00"</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>W008°01'00.00"</t>
+          <t>W000°20'18.00"</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -9584,7 +9588,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>OKASI</t>
+          <t>BIDAC</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -9599,12 +9603,12 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>N48°05'00.00"</t>
+          <t>N43°25'01.99"</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>E002°46'40.00"</t>
+          <t>W001°08'08.00"</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -9616,7 +9620,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>SIQLE</t>
+          <t>ARVID</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -9631,12 +9635,12 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>N47°01'15.99"</t>
+          <t>N43°04'33.99"</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>E003°14'12.99"</t>
+          <t>W001°27'53.00"</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -9648,7 +9652,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>UTUVA</t>
+          <t>PPN</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -9663,12 +9667,12 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>N45°51'48.00"</t>
+          <t>N42°44'02.00"</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>E003°29'27.99"</t>
+          <t>W001°42'07.00"</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -9680,7 +9684,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>LERGA</t>
+          <t>NOLSA</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -9695,12 +9699,12 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>N45°15'26.00"</t>
+          <t>N42°25'39.00"</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>E003°45'00.99"</t>
+          <t>W001°54'27.00"</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -9712,7 +9716,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>LANVI</t>
+          <t>ALEPO</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -9727,12 +9731,12 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>N48°18'42.00"</t>
+          <t>N42°20'36.99"</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>E005°47'50.00"</t>
+          <t>W001°57'48.00"</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -9744,7 +9748,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>VASUM</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -9759,12 +9763,12 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>N48°19'03.99"</t>
+          <t>N42°16'18.99"</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>E006°03'33.99"</t>
+          <t>W002°00'39.99"</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -9776,7 +9780,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>OBAKI</t>
+          <t>GARVU</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -9791,12 +9795,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>N48°21'57.00"</t>
+          <t>N42°10'15.99"</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>E006°25'49.99"</t>
+          <t>W002°04'40.00"</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -9808,7 +9812,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>POGOL</t>
+          <t>BANEV</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -9823,12 +9827,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>N48°23'56.99"</t>
+          <t>N41°30'08.99"</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>E006°41'36.00"</t>
+          <t>W002°30'52.00"</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -9840,7 +9844,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>OBORN</t>
+          <t>BAN</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -9855,12 +9859,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>N48°27'42.99"</t>
+          <t>N41°19'25.00"</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>E007°12'06.00"</t>
+          <t>W002°37'47.00"</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -9872,7 +9876,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>LUPEN</t>
+          <t>GOTOR</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -9887,12 +9891,12 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>N48°26'06.00"</t>
+          <t>N40°06'38.99"</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>E007°44'01.00"</t>
+          <t>W003°43'28.00"</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -9904,7 +9908,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>GESLU</t>
+          <t>KAMPO</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -9919,12 +9923,12 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>N48°27'42.99"</t>
+          <t>N39°44'00.00"</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>E009°41'19.00"</t>
+          <t>W004°03'18.99"</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -9936,7 +9940,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>LURER</t>
+          <t>MONTO</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -9951,12 +9955,12 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>N48°27'44.99"</t>
+          <t>N39°13'17.99"</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>E010°36'03.00"</t>
+          <t>W004°29'49.00"</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -9968,7 +9972,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>LELTA</t>
+          <t>MOLIN</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -9983,12 +9987,12 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>N48°29'35.00"</t>
+          <t>N39°00'00.00"</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>E010°57'18.99"</t>
+          <t>W004°41'08.99"</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -10000,7 +10004,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>MAH</t>
+          <t>HIJ</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -10015,12 +10019,12 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>N48°15'48.00"</t>
+          <t>N38°30'29.00"</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>E011°18'42.99"</t>
+          <t>W005°05'58.99"</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -10032,7 +10036,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>OTT</t>
+          <t>SVL</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -10047,12 +10051,12 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>N48°10'48.99"</t>
+          <t>N37°25'39.00"</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>E011°48'59.99"</t>
+          <t>W005°45'45.00"</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -10064,7 +10068,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>EBEDA</t>
+          <t>SANTA</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -10079,12 +10083,12 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>N48°09'37.00"</t>
+          <t>N37°40'07.00"</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>E012°07'36.99"</t>
+          <t>W006°17'53.99"</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -10096,7 +10100,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>AMDID</t>
+          <t>ROSAL</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -10111,12 +10115,12 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>N48°05'49.99"</t>
+          <t>N38°01'16.99"</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>E012°23'49.00"</t>
+          <t>W007°06'03.99"</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -10128,7 +10132,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>TITIG</t>
+          <t>EXONA</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -10143,12 +10147,12 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>N48°03'31.99"</t>
+          <t>N38°54'15.99"</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>E012°33'34.00"</t>
+          <t>W008°01'00.00"</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -10160,7 +10164,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>NEMAL</t>
+          <t>OKASI</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -10175,12 +10179,12 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>N47°55'04.99"</t>
+          <t>N48°05'00.00"</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>E013°29'53.99"</t>
+          <t>E002°46'40.00"</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -10192,7 +10196,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ARSIN</t>
+          <t>SIQLE</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -10207,12 +10211,12 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>N47°34'01.99"</t>
+          <t>N47°01'15.99"</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>E016°45'13.00"</t>
+          <t>E003°14'12.99"</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -10224,7 +10228,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>VAJDI</t>
+          <t>UTUVA</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -10239,12 +10243,12 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>N47°22'32.00"</t>
+          <t>N45°51'48.00"</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>E018°17'08.99"</t>
+          <t>E003°29'27.99"</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -10256,7 +10260,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>GILEP</t>
+          <t>LERGA</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -10271,12 +10275,12 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>N47°29'00.00"</t>
+          <t>N45°15'26.00"</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>E018°15'32.00"</t>
+          <t>E003°45'00.99"</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -10288,7 +10292,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>BEGLA</t>
+          <t>LANVI</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -10303,12 +10307,12 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>N47°49'50.99"</t>
+          <t>N48°18'42.00"</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>E017°06'52.00"</t>
+          <t>E005°47'50.00"</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -10320,7 +10324,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>MOVOS</t>
+          <t>EPL</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -10335,12 +10339,12 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>N47°54'40.99"</t>
+          <t>N48°19'03.99"</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>E016°26'13.99"</t>
+          <t>E006°03'33.99"</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -10352,7 +10356,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>RENKA</t>
+          <t>OBAKI</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -10367,12 +10371,12 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>N48°35'05.00"</t>
+          <t>N48°21'57.00"</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>E013°30'18.99"</t>
+          <t>E006°25'49.99"</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -10384,7 +10388,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>GONBA</t>
+          <t>POGOL</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -10399,12 +10403,12 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>N48°41'16.00"</t>
+          <t>N48°23'56.99"</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>E013°04'33.00"</t>
+          <t>E006°41'36.00"</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -10416,7 +10420,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>STAUB</t>
+          <t>OBORN</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -10431,12 +10435,12 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>N48°47'09.00"</t>
+          <t>N48°27'42.99"</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>E012°39'28.99"</t>
+          <t>E007°12'06.00"</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -10448,7 +10452,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>MAMOR</t>
+          <t>LUPEN</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -10463,12 +10467,12 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>N48°53'08.99"</t>
+          <t>N48°26'06.00"</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>E012°13'19.99"</t>
+          <t>E007°44'01.00"</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -10480,7 +10484,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>UNKUL</t>
+          <t>GESLU</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -10495,12 +10499,12 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>N49°08'13.99"</t>
+          <t>N48°27'42.99"</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>E011°27'34.99"</t>
+          <t>E009°41'19.00"</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -10512,7 +10516,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>UPALA</t>
+          <t>LURER</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -10527,12 +10531,12 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>N49°12'52.00"</t>
+          <t>N48°27'44.99"</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>E011°13'16.99"</t>
+          <t>E010°36'03.00"</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -10544,7 +10548,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>PETIX</t>
+          <t>LELTA</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -10559,12 +10563,12 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>N49°20'28.00"</t>
+          <t>N48°29'35.00"</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>E010°45'16.99"</t>
+          <t>E010°57'18.99"</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -10576,7 +10580,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>COSJE</t>
+          <t>MAH</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -10591,12 +10595,12 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>N49°43'03.00"</t>
+          <t>N48°15'48.00"</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>E009°56'48.99"</t>
+          <t>E011°18'42.99"</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -10608,7 +10612,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>RIDSU</t>
+          <t>OTT</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -10623,12 +10627,12 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>N49°44'56.00"</t>
+          <t>N48°10'48.99"</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>E008°28'48.00"</t>
+          <t>E011°48'59.99"</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -10640,7 +10644,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>DONAB</t>
+          <t>EBEDA</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -10655,12 +10659,12 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>N49°49'15.99"</t>
+          <t>N48°09'37.00"</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>E008°01'45.00"</t>
+          <t>E012°07'36.99"</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -10672,7 +10676,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>SOBRA</t>
+          <t>AMDID</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -10687,12 +10691,12 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>N49°51'38.99"</t>
+          <t>N48°05'49.99"</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>E007°46'32.00"</t>
+          <t>E012°23'49.00"</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -10704,7 +10708,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ULKIG</t>
+          <t>TITIG</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -10719,12 +10723,12 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>N49°52'11.00"</t>
+          <t>N48°03'31.99"</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>E007°43'09.99"</t>
+          <t>E012°33'34.00"</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -10736,7 +10740,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>RUDOT</t>
+          <t>NEMAL</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -10751,12 +10755,12 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>N49°59'35.99"</t>
+          <t>N47°55'04.99"</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>E006°54'16.00"</t>
+          <t>E013°29'53.99"</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -10768,7 +10772,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>BITBU</t>
+          <t>ARSIN</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -10783,12 +10787,12 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>N49°58'58.99"</t>
+          <t>N47°34'01.99"</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>E006°33'41.99"</t>
+          <t>E016°45'13.00"</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -10800,7 +10804,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ASMOX</t>
+          <t>VAJDI</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -10815,12 +10819,12 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>N49°54'09.99"</t>
+          <t>N47°22'32.00"</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>E006°16'34.00"</t>
+          <t>E018°17'08.99"</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -10832,7 +10836,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>NISIV</t>
+          <t>GILEP</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -10847,12 +10851,12 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>N49°53'33.99"</t>
+          <t>N47°29'00.00"</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>E006°14'34.99"</t>
+          <t>E018°15'32.00"</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -10864,7 +10868,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>DIEKIRCH</t>
+          <t>BEGLA</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -10879,12 +10883,12 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>N49°51'41.00"</t>
+          <t>N47°49'50.99"</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>E006°07'46.99"</t>
+          <t>E017°06'52.00"</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -10896,7 +10900,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>IDOSA</t>
+          <t>MOVOS</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -10911,12 +10915,12 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>N49°44'30.00"</t>
+          <t>N47°54'40.99"</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>E005°52'11.00"</t>
+          <t>E016°26'13.99"</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -10928,7 +10932,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>TOLVU</t>
+          <t>RENKA</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -10943,12 +10947,12 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>N49°37'30.99"</t>
+          <t>N48°35'05.00"</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>E005°22'18.00"</t>
+          <t>E013°30'18.99"</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -10960,7 +10964,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>RAPOR</t>
+          <t>GONBA</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -10975,12 +10979,12 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>N49°35'28.99"</t>
+          <t>N48°41'16.00"</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>E005°12'47.00"</t>
+          <t>E013°04'33.00"</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -10992,7 +10996,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>VEDUS</t>
+          <t>STAUB</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -11007,12 +11011,12 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>N49°35'41.00"</t>
+          <t>N48°47'09.00"</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>E004°46'52.99"</t>
+          <t>E012°39'28.99"</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -11024,7 +11028,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>LATID</t>
+          <t>MAMOR</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -11039,12 +11043,12 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>N14°28'35.00"</t>
+          <t>N48°53'08.99"</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>E077°56'55.99"</t>
+          <t>E012°13'19.99"</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -11056,7 +11060,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>VIRAM</t>
+          <t>UNKUL</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -11071,12 +11075,12 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>N15°21'33.99"</t>
+          <t>N49°08'13.99"</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>E078°05'55.00"</t>
+          <t>E011°27'34.99"</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -11088,7 +11092,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>BOSGA</t>
+          <t>UPALA</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -11103,12 +11107,12 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>N16°12'33.99"</t>
+          <t>N49°12'52.00"</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>E078°14'16.00"</t>
+          <t>E011°13'16.99"</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -11120,7 +11124,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>SAKRO</t>
+          <t>PETIX</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -11135,12 +11139,12 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>N16°34'00.16"</t>
+          <t>N49°20'28.00"</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>E078°17'47.35"</t>
+          <t>E010°45'16.99"</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -11152,7 +11156,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>COSJE</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -11167,12 +11171,12 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>N17°13'40.10"</t>
+          <t>N49°43'03.00"</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>E078°24'20.87"</t>
+          <t>E009°56'48.99"</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -11184,7 +11188,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>BUSBO</t>
+          <t>RIDSU</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -11199,12 +11203,12 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>N19°14'58.00"</t>
+          <t>N49°44'56.00"</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>E078°07'30.00"</t>
+          <t>E008°28'48.00"</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -11216,7 +11220,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ASIPI</t>
+          <t>DONAB</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -11231,12 +11235,12 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>N20°31'29.99"</t>
+          <t>N49°49'15.99"</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>E077°52'44.99"</t>
+          <t>E008°01'45.00"</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -11248,7 +11252,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>TAMID</t>
+          <t>SOBRA</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -11263,12 +11267,12 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>N20°41'17.99"</t>
+          <t>N49°51'38.99"</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>E077°50'56.00"</t>
+          <t>E007°46'32.00"</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -11280,7 +11284,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>KAMLO</t>
+          <t>ULKIG</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -11295,12 +11299,12 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>N20°55'08.99"</t>
+          <t>N49°52'11.00"</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>E077°48'02.99"</t>
+          <t>E007°43'09.99"</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -11312,7 +11316,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>UPTAR</t>
+          <t>RUDOT</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -11327,12 +11331,12 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>N21°30'42.00"</t>
+          <t>N49°59'35.99"</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>E077°40'54.99"</t>
+          <t>E006°54'16.00"</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -11344,7 +11348,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>BIGIL</t>
+          <t>BITBU</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -11359,12 +11363,12 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>N22°07'01.99"</t>
+          <t>N49°58'58.99"</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>E077°33'56.00"</t>
+          <t>E006°33'41.99"</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -11376,7 +11380,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>BPL</t>
+          <t>ASMOX</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -11391,12 +11395,12 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>N23°16'59.73"</t>
+          <t>N49°54'09.99"</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>E077°20'11.85"</t>
+          <t>E006°16'34.00"</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -11408,7 +11412,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>PUKES</t>
+          <t>NISIV</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -11423,12 +11427,12 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>N24°42'02.00"</t>
+          <t>N49°53'33.99"</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>E077°16'11.99"</t>
+          <t>E006°14'34.99"</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -11440,7 +11444,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>BUKLO</t>
+          <t>DIEKIRCH</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -11455,12 +11459,12 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>N25°00'01.00"</t>
+          <t>N49°51'41.00"</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>E077°15'26.00"</t>
+          <t>E006°07'46.99"</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -11472,7 +11476,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>BAVOX</t>
+          <t>IDOSA</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -11487,12 +11491,12 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>N26°08'30.99"</t>
+          <t>N49°44'30.00"</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>E077°12'55.99"</t>
+          <t>E005°52'11.00"</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -11504,7 +11508,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>AURANGABAD</t>
+          <t>TOLVU</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -11519,12 +11523,12 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>N19°51'39.95"</t>
+          <t>N49°37'30.99"</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>E075°24'18.90"</t>
+          <t>E005°22'18.00"</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -11536,7 +11540,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>DUBOX</t>
+          <t>RAPOR</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -11551,12 +11555,12 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>N20°22'15.00"</t>
+          <t>N49°35'28.99"</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>E076°49'56.00"</t>
+          <t>E005°12'47.00"</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -11568,7 +11572,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>NINAT</t>
+          <t>VEDUS</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -11583,12 +11587,12 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>N20°32'48.00"</t>
+          <t>N49°35'41.00"</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>E077°24'56.00"</t>
+          <t>E004°46'52.99"</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -11600,7 +11604,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>NAGPUR</t>
+          <t>LATID</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -11615,12 +11619,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>N21°04'53.22"</t>
+          <t>N14°28'35.00"</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>E079°03'22.67"</t>
+          <t>E077°56'55.99"</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -11632,7 +11636,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>TEGIG</t>
+          <t>VIRAM</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -11647,12 +11651,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>N21°30'09.00"</t>
+          <t>N15°21'33.99"</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>E080°35'37.00"</t>
+          <t>E078°05'55.00"</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -11664,7 +11668,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>DOSAT</t>
+          <t>BOSGA</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -11679,12 +11683,12 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>N21°41'32.99"</t>
+          <t>N16°12'33.99"</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>E081°18'24.00"</t>
+          <t>E078°14'16.00"</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -11696,7 +11700,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>OPONI</t>
+          <t>SAKRO</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -11711,12 +11715,12 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>N21°47'03.00"</t>
+          <t>N16°34'00.16"</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>E081°38'24.00"</t>
+          <t>E078°17'47.35"</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -11728,7 +11732,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>NIPAD</t>
+          <t>HIA</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -11743,12 +11747,12 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>N21°52'17.99"</t>
+          <t>N17°13'40.10"</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>E081°59'52.99"</t>
+          <t>E078°24'20.87"</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -11760,7 +11764,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>OTABA</t>
+          <t>BUSBO</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -11775,12 +11779,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>N22°11'02.99"</t>
+          <t>N19°14'58.00"</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>E083°19'22.99"</t>
+          <t>E078°07'30.00"</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -11792,7 +11796,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>KINKI</t>
+          <t>ASIPI</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -11807,12 +11811,12 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>N22°19'17.99"</t>
+          <t>N20°31'29.99"</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>E083°55'38.00"</t>
+          <t>E077°52'44.99"</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -11824,7 +11828,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>AGROM</t>
+          <t>TAMID</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -11839,12 +11843,12 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>N22°31'44.99"</t>
+          <t>N20°41'17.99"</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>E084°49'59.99"</t>
+          <t>E077°50'56.00"</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -11856,7 +11860,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>JAMSHEDPUR</t>
+          <t>KAMLO</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -11871,12 +11875,12 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>N22°48'47.47"</t>
+          <t>N20°55'08.99"</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>E086°10'26.15"</t>
+          <t>E077°48'02.99"</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -11888,7 +11892,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>KAMGU</t>
+          <t>UPTAR</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -11903,12 +11907,12 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>N14°58'31.00"</t>
+          <t>N21°30'42.00"</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>E079°25'12.00"</t>
+          <t>E077°40'54.99"</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -11920,7 +11924,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>KIKUR</t>
+          <t>BIGIL</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -11935,12 +11939,12 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>N15°58'54.99"</t>
+          <t>N22°07'01.99"</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>E079°10'32.00"</t>
+          <t>E077°33'56.00"</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -11952,7 +11956,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ANDAV</t>
+          <t>BPL</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -11967,12 +11971,12 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>N17°28'18.00"</t>
+          <t>N23°16'59.73"</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>E078°48'49.00"</t>
+          <t>E077°20'11.85"</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -11984,7 +11988,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ALBED</t>
+          <t>PUKES</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -11999,12 +12003,12 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>N18°07'01.99"</t>
+          <t>N24°42'02.00"</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>E078°39'23.99"</t>
+          <t>E077°16'11.99"</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -12016,7 +12020,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>LAROB</t>
+          <t>BUKLO</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -12031,12 +12035,12 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>N19°10'14.00"</t>
+          <t>N25°00'01.00"</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>E078°23'40.00"</t>
+          <t>E077°15'26.00"</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -12048,7 +12052,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>SUDEL</t>
+          <t>BAVOX</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -12063,12 +12067,12 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>N19°34'17.99"</t>
+          <t>N26°08'30.99"</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>E078°17'18.99"</t>
+          <t>E077°12'55.99"</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -12080,7 +12084,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>TASEX</t>
+          <t>AURANGABAD</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -12095,12 +12099,12 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>N20°33'54.00"</t>
+          <t>N19°51'39.95"</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>E078°01'36.99"</t>
+          <t>E075°24'18.90"</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -12112,7 +12116,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>RENAG</t>
+          <t>DUBOX</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -12127,12 +12131,12 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>N22°03'12.00"</t>
+          <t>N20°22'15.00"</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>E077°39'32.00"</t>
+          <t>E076°49'56.00"</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -12144,7 +12148,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>BHOPAL</t>
+          <t>NINAT</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -12159,12 +12163,12 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>N23°16'59.73"</t>
+          <t>N20°32'48.00"</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>E077°20'11.85"</t>
+          <t>E077°24'56.00"</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -12176,36 +12180,612 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
+          <t>NAGPUR</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>N21°04'53.22"</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>E079°03'22.67"</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>TEGIG</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>N21°30'09.00"</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>E080°35'37.00"</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>DOSAT</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>N21°41'32.99"</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>E081°18'24.00"</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>OPONI</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>N21°47'03.00"</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>E081°38'24.00"</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>NIPAD</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>N21°52'17.99"</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>E081°59'52.99"</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>OTABA</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>N22°11'02.99"</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>E083°19'22.99"</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>KINKI</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>N22°19'17.99"</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>E083°55'38.00"</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>AGROM</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>N22°31'44.99"</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>E084°49'59.99"</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>JAMSHEDPUR</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>N22°48'47.47"</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>E086°10'26.15"</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>KAMGU</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>N14°58'31.00"</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>E079°25'12.00"</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>KIKUR</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>N15°58'54.99"</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>E079°10'32.00"</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>ANDAV</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>N17°28'18.00"</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>E078°48'49.00"</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>ALBED</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>N18°07'01.99"</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>E078°39'23.99"</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>LAROB</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>N19°10'14.00"</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>E078°23'40.00"</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>SUDEL</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>N19°34'17.99"</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>E078°17'18.99"</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>TASEX</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>N20°33'54.00"</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>E078°01'36.99"</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>RENAG</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>N22°03'12.00"</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>E077°39'32.00"</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>BHOPAL</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>N23°16'59.73"</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>E077°20'11.85"</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
           <t>INTIL</t>
         </is>
       </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>WayPoint</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr">
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
         <is>
           <t>N26°27'51.00"</t>
         </is>
       </c>
-      <c r="E368" t="inlineStr">
+      <c r="E386" t="inlineStr">
         <is>
           <t>E076°32'40.99"</t>
         </is>
       </c>
-      <c r="F368" t="inlineStr">
+      <c r="F386" t="inlineStr">
         <is>
           <t>Unknown Name</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/airline/management/commands/AirlineRoutesWayPoints/WayPoints.xlsx
+++ b/airline/management/commands/AirlineRoutesWayPoints/WayPoints.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F386"/>
+  <dimension ref="A1:F431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11604,7 +11604,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>LATID</t>
+          <t>PINAR</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -11619,12 +11619,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>N14°28'35.00"</t>
+          <t>N40°58'49.00"</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>E077°56'55.99"</t>
+          <t>W002°35'56.99"</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -11636,7 +11636,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>VIRAM</t>
+          <t>SEGRE</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -11651,12 +11651,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>N15°21'33.99"</t>
+          <t>N41°01'21.99"</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>E078°05'55.00"</t>
+          <t>W002°22'35.00"</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -11668,7 +11668,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>BOSGA</t>
+          <t>YAKXU</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -11683,12 +11683,12 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>N16°12'33.99"</t>
+          <t>N42°05'55.00"</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>E078°14'16.00"</t>
+          <t>W001°12'45.99"</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -11700,7 +11700,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>SAKRO</t>
+          <t>RONNY</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -11715,12 +11715,12 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>N16°34'00.16"</t>
+          <t>N42°25'45.00"</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>E078°17'47.35"</t>
+          <t>W000°50'41.00"</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -11732,7 +11732,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>TOPTU</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -11747,12 +11747,12 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>N17°13'40.10"</t>
+          <t>N42°47'48.00"</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>E078°24'20.87"</t>
+          <t>W000°11'37.00"</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -11764,7 +11764,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>BUSBO</t>
+          <t>BUROX</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -11779,12 +11779,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>N19°14'58.00"</t>
+          <t>N43°37'49.99"</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>E078°07'30.00"</t>
+          <t>E001°15'17.99"</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -11796,7 +11796,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ASIPI</t>
+          <t>DITEV</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -11811,12 +11811,12 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>N20°31'29.99"</t>
+          <t>N44°29'00.99"</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>E077°52'44.99"</t>
+          <t>E002°54'08.99"</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -11828,7 +11828,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>TAMID</t>
+          <t>NINUN</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -11843,12 +11843,12 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>N20°41'17.99"</t>
+          <t>N44°46'07.00"</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>E077°50'56.00"</t>
+          <t>E003°33'45.99"</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -11860,7 +11860,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>KAMLO</t>
+          <t>MEZIN</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -11875,12 +11875,12 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>N20°55'08.99"</t>
+          <t>N45°01'02.00"</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>E077°48'02.99"</t>
+          <t>E004°11'45.00"</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -11892,7 +11892,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>UPTAR</t>
+          <t>LATAM</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -11907,12 +11907,12 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>N21°30'42.00"</t>
+          <t>N45°02'01.99"</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>E077°40'54.99"</t>
+          <t>E004°14'21.00"</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -11924,7 +11924,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>BIGIL</t>
+          <t>OTROT</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -11939,12 +11939,12 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>N22°07'01.99"</t>
+          <t>N45°06'49.00"</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>E077°33'56.00"</t>
+          <t>E004°26'44.00"</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -11956,7 +11956,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>BPL</t>
+          <t>ETREK</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -11971,12 +11971,12 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>N23°16'59.73"</t>
+          <t>N45°11'15.99"</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>E077°20'11.85"</t>
+          <t>E004°38'19.00"</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -11988,7 +11988,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>PUKES</t>
+          <t>LUXAN</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -12003,12 +12003,12 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>N24°42'02.00"</t>
+          <t>N45°22'29.00"</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>E077°16'11.99"</t>
+          <t>E005°07'58.00"</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -12020,7 +12020,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>BUKLO</t>
+          <t>ARKOX</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -12035,12 +12035,12 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>N25°00'01.00"</t>
+          <t>N45°26'23.99"</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>E077°15'26.00"</t>
+          <t>E005°18'27.00"</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -12052,7 +12052,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>BAVOX</t>
+          <t>LATOURDUPIN</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -12067,12 +12067,12 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>N26°08'30.99"</t>
+          <t>N45°29'19.99"</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>E077°12'55.99"</t>
+          <t>E005°26'21.00"</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -12084,7 +12084,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>AURANGABAD</t>
+          <t>GIPNO</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -12099,12 +12099,12 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>N19°51'39.95"</t>
+          <t>N45°33'36.00"</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>E075°24'18.90"</t>
+          <t>E005°31'45.00"</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -12116,7 +12116,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>DUBOX</t>
+          <t>NAVLA</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -12131,12 +12131,12 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>N20°22'15.00"</t>
+          <t>N45°40'01.99"</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>E076°49'56.00"</t>
+          <t>E005°40'01.00"</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -12148,7 +12148,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>NINAT</t>
+          <t>SOPLO</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -12163,12 +12163,12 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>N20°32'48.00"</t>
+          <t>N45°43'44.00"</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>E077°24'56.00"</t>
+          <t>E005°44'45.00"</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -12180,7 +12180,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>NAGPUR</t>
+          <t>OMASI</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -12195,12 +12195,12 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>N21°04'53.22"</t>
+          <t>N45°54'21.99"</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>E079°03'22.67"</t>
+          <t>E005°58'27.00"</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -12212,7 +12212,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>TEGIG</t>
+          <t>KINNI</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -12227,12 +12227,12 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>N21°30'09.00"</t>
+          <t>N46°05'19.99"</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>E080°35'37.00"</t>
+          <t>E006°12'42.00"</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -12244,7 +12244,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>DOSAT</t>
+          <t>MOLUS</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -12259,12 +12259,12 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>N21°41'32.99"</t>
+          <t>N46°26'37.99"</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>E081°18'24.00"</t>
+          <t>E006°40'45.99"</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -12276,7 +12276,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>OPONI</t>
+          <t>SOSAL</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -12291,12 +12291,12 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>N21°47'03.00"</t>
+          <t>N46°33'28.99"</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>E081°38'24.00"</t>
+          <t>E006°53'03.99"</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -12308,7 +12308,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>NIPAD</t>
+          <t>TELNO</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -12323,12 +12323,12 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>N21°52'17.99"</t>
+          <t>N46°46'18.99"</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>E081°59'52.99"</t>
+          <t>E007°16'14.99"</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -12340,7 +12340,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>OTABA</t>
+          <t>KORED</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -12355,12 +12355,12 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>N22°11'02.99"</t>
+          <t>N46°51'01.99"</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>E083°19'22.99"</t>
+          <t>E007°24'50.99"</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -12372,7 +12372,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>KINKI</t>
+          <t>KONOL</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -12387,12 +12387,12 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>N22°19'17.99"</t>
+          <t>N46°59'43.00"</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>E083°55'38.00"</t>
+          <t>E007°40'50.99"</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -12404,7 +12404,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>AGROM</t>
+          <t>BERSU</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -12419,12 +12419,12 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>N22°31'44.99"</t>
+          <t>N47°08'07.99"</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>E084°49'59.99"</t>
+          <t>E007°56'28.99"</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -12436,7 +12436,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>JAMSHEDPUR</t>
+          <t>SONOM</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -12451,12 +12451,12 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>N22°48'47.47"</t>
+          <t>N47°47'02.99"</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>E086°10'26.15"</t>
+          <t>E008°53'45.99"</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -12468,7 +12468,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>KAMGU</t>
+          <t>LADOL</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -12483,12 +12483,12 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>N14°58'31.00"</t>
+          <t>N48°09'59.99"</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>E079°25'12.00"</t>
+          <t>E008°57'11.99"</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -12500,7 +12500,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>KIKUR</t>
+          <t>EMPAX</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -12515,12 +12515,12 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>N15°58'54.99"</t>
+          <t>N48°27'42.99"</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>E079°10'32.00"</t>
+          <t>E008°59'53.00"</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -12532,7 +12532,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ANDAV</t>
+          <t>NELLI</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -12547,12 +12547,12 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>N17°28'18.00"</t>
+          <t>N48°37'40.00"</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>E078°48'49.00"</t>
+          <t>E009°01'24.99"</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -12564,7 +12564,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ALBED</t>
+          <t>KOVAN</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -12579,12 +12579,12 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>N18°07'01.99"</t>
+          <t>N48°52'57.00"</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>E078°39'23.99"</t>
+          <t>E009°05'02.99"</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -12596,7 +12596,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>LAROB</t>
+          <t>LUBURG</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -12611,12 +12611,12 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>N19°10'14.00"</t>
+          <t>N48°54'47.00"</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>E078°23'40.00"</t>
+          <t>E009°20'25.00"</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -12628,7 +12628,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>SUDEL</t>
+          <t>OKIBA</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -12643,12 +12643,12 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>N19°34'17.99"</t>
+          <t>N49°12'52.99"</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>E078°17'18.99"</t>
+          <t>E009°18'57.99"</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -12660,7 +12660,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>TASEX</t>
+          <t>ROLSO</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -12675,12 +12675,12 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>N20°33'54.00"</t>
+          <t>N49°21'15.00"</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>E078°01'36.99"</t>
+          <t>E009°18'19.00"</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -12692,7 +12692,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>RENAG</t>
+          <t>RIMKI</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -12707,12 +12707,12 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>N22°03'12.00"</t>
+          <t>N49°44'56.00"</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>E077°39'32.00"</t>
+          <t>E009°21'50.00"</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -12724,7 +12724,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>BHOPAL</t>
+          <t>LOHRE</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -12739,12 +12739,12 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>N23°16'59.73"</t>
+          <t>N50°04'01.00"</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>E077°20'11.85"</t>
+          <t>E009°29'11.00"</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -12756,30 +12756,1470 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
+          <t>TIKNI</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>N50°24'34.99"</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>E009°52'23.99"</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>GAPLA</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>N50°39'13.99"</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>E010°16'49.99"</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>TAMEB</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>N50°48'28.00"</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>E010°43'48.00"</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>WEMAR</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>N50°58'58.99"</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>E011°15'06.99"</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>RELKO</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>N51°03'34.99"</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>E011°29'01.99"</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>NAMUB</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>N51°07'24.99"</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>E011°40'42.99"</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>NOTGO</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>N51°12'38.00"</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>E011°56'48.00"</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>RUDAK</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>N51°46'42.00"</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>E012°54'57.99"</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>KLASDORF</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>N52°01'10.00"</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>E013°33'47.99"</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>LATID</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>N14°28'35.00"</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>E077°56'55.99"</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>VIRAM</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>N15°21'33.99"</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>E078°05'55.00"</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>BOSGA</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>N16°12'33.99"</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>E078°14'16.00"</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>SAKRO</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>N16°34'00.16"</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>E078°17'47.35"</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>HIA</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>N17°13'40.10"</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>E078°24'20.87"</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>BUSBO</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>N19°14'58.00"</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>E078°07'30.00"</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>ASIPI</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>N20°31'29.99"</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>E077°52'44.99"</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>TAMID</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>N20°41'17.99"</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>E077°50'56.00"</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>KAMLO</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>N20°55'08.99"</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>E077°48'02.99"</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>UPTAR</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>N21°30'42.00"</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>E077°40'54.99"</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>BIGIL</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>N22°07'01.99"</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>E077°33'56.00"</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>BPL</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>N23°16'59.73"</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>E077°20'11.85"</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>PUKES</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>N24°42'02.00"</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>E077°16'11.99"</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>BUKLO</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>N25°00'01.00"</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>E077°15'26.00"</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>BAVOX</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>N26°08'30.99"</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>E077°12'55.99"</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>AURANGABAD</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>N19°51'39.95"</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>E075°24'18.90"</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>DUBOX</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>N20°22'15.00"</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>E076°49'56.00"</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>NINAT</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>N20°32'48.00"</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>E077°24'56.00"</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>NAGPUR</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>N21°04'53.22"</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>E079°03'22.67"</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>TEGIG</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>N21°30'09.00"</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>E080°35'37.00"</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>DOSAT</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>N21°41'32.99"</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>E081°18'24.00"</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>OPONI</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>N21°47'03.00"</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>E081°38'24.00"</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>NIPAD</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>N21°52'17.99"</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>E081°59'52.99"</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>OTABA</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>N22°11'02.99"</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>E083°19'22.99"</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>KINKI</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>N22°19'17.99"</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>E083°55'38.00"</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>AGROM</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>N22°31'44.99"</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>E084°49'59.99"</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>JAMSHEDPUR</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>N22°48'47.47"</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>E086°10'26.15"</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>KAMGU</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>N14°58'31.00"</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>E079°25'12.00"</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>KIKUR</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>N15°58'54.99"</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>E079°10'32.00"</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>ANDAV</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>N17°28'18.00"</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>E078°48'49.00"</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>ALBED</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>N18°07'01.99"</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>E078°39'23.99"</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>LAROB</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>N19°10'14.00"</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>E078°23'40.00"</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>SUDEL</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>N19°34'17.99"</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>E078°17'18.99"</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>TASEX</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>N20°33'54.00"</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>E078°01'36.99"</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>RENAG</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>N22°03'12.00"</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>E077°39'32.00"</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>BHOPAL</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>N23°16'59.73"</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>E077°20'11.85"</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
           <t>INTIL</t>
         </is>
       </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr">
-        <is>
-          <t>WayPoint</t>
-        </is>
-      </c>
-      <c r="D386" t="inlineStr">
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
         <is>
           <t>N26°27'51.00"</t>
         </is>
       </c>
-      <c r="E386" t="inlineStr">
+      <c r="E431" t="inlineStr">
         <is>
           <t>E076°32'40.99"</t>
         </is>
       </c>
-      <c r="F386" t="inlineStr">
+      <c r="F431" t="inlineStr">
         <is>
           <t>Unknown Name</t>
         </is>

--- a/airline/management/commands/AirlineRoutesWayPoints/WayPoints.xlsx
+++ b/airline/management/commands/AirlineRoutesWayPoints/WayPoints.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WayPoints" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WayPoints" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F431"/>
+  <dimension ref="A1:F456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10132,7 +10132,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>EXONA</t>
+          <t>OKASI</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -10147,12 +10147,12 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>N38°54'15.99"</t>
+          <t>N48°05'00.00"</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>W008°01'00.00"</t>
+          <t>E002°46'40.00"</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -10164,7 +10164,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>OKASI</t>
+          <t>SIQLE</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -10179,12 +10179,12 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>N48°05'00.00"</t>
+          <t>N47°01'15.99"</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>E002°46'40.00"</t>
+          <t>E003°14'12.99"</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -10196,7 +10196,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>SIQLE</t>
+          <t>UTUVA</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -10211,12 +10211,12 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>N47°01'15.99"</t>
+          <t>N45°51'48.00"</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>E003°14'12.99"</t>
+          <t>E003°29'27.99"</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -10228,7 +10228,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>UTUVA</t>
+          <t>LERGA</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -10243,12 +10243,12 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>N45°51'48.00"</t>
+          <t>N45°15'26.00"</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>E003°29'27.99"</t>
+          <t>E003°45'00.99"</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -10260,7 +10260,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>LERGA</t>
+          <t>LANVI</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -10275,12 +10275,12 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>N45°15'26.00"</t>
+          <t>N48°18'42.00"</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>E003°45'00.99"</t>
+          <t>E005°47'50.00"</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -10292,7 +10292,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>LANVI</t>
+          <t>EPL</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -10307,12 +10307,12 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>N48°18'42.00"</t>
+          <t>N48°19'03.99"</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>E005°47'50.00"</t>
+          <t>E006°03'33.99"</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -10324,7 +10324,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>EPL</t>
+          <t>OBAKI</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -10339,12 +10339,12 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>N48°19'03.99"</t>
+          <t>N48°21'57.00"</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>E006°03'33.99"</t>
+          <t>E006°25'49.99"</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -10356,7 +10356,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>OBAKI</t>
+          <t>POGOL</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -10371,12 +10371,12 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>N48°21'57.00"</t>
+          <t>N48°23'56.99"</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>E006°25'49.99"</t>
+          <t>E006°41'36.00"</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -10388,7 +10388,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>POGOL</t>
+          <t>OBORN</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -10403,12 +10403,12 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>N48°23'56.99"</t>
+          <t>N48°27'42.99"</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>E006°41'36.00"</t>
+          <t>E007°12'06.00"</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -10420,7 +10420,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>OBORN</t>
+          <t>LUPEN</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -10435,12 +10435,12 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>N48°27'42.99"</t>
+          <t>N48°26'06.00"</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>E007°12'06.00"</t>
+          <t>E007°44'01.00"</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -10452,7 +10452,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>LUPEN</t>
+          <t>GESLU</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -10467,12 +10467,12 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>N48°26'06.00"</t>
+          <t>N48°27'42.99"</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>E007°44'01.00"</t>
+          <t>E009°41'19.00"</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -10484,7 +10484,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>GESLU</t>
+          <t>LURER</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -10499,12 +10499,12 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>N48°27'42.99"</t>
+          <t>N48°27'44.99"</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>E009°41'19.00"</t>
+          <t>E010°36'03.00"</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -10516,7 +10516,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>LURER</t>
+          <t>LELTA</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -10531,12 +10531,12 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>N48°27'44.99"</t>
+          <t>N48°29'35.00"</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>E010°36'03.00"</t>
+          <t>E010°57'18.99"</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -10548,7 +10548,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>LELTA</t>
+          <t>MAH</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -10563,12 +10563,12 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>N48°29'35.00"</t>
+          <t>N48°15'48.00"</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>E010°57'18.99"</t>
+          <t>E011°18'42.99"</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -10580,7 +10580,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>MAH</t>
+          <t>OTT</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -10595,12 +10595,12 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>N48°15'48.00"</t>
+          <t>N48°10'48.99"</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>E011°18'42.99"</t>
+          <t>E011°48'59.99"</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -10612,7 +10612,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>OTT</t>
+          <t>EBEDA</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -10627,12 +10627,12 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>N48°10'48.99"</t>
+          <t>N48°09'37.00"</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>E011°48'59.99"</t>
+          <t>E012°07'36.99"</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -10644,7 +10644,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>EBEDA</t>
+          <t>AMDID</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -10659,12 +10659,12 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>N48°09'37.00"</t>
+          <t>N48°05'49.99"</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>E012°07'36.99"</t>
+          <t>E012°23'49.00"</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -10676,7 +10676,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>AMDID</t>
+          <t>TITIG</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -10691,12 +10691,12 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>N48°05'49.99"</t>
+          <t>N48°03'31.99"</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>E012°23'49.00"</t>
+          <t>E012°33'34.00"</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -10708,7 +10708,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>TITIG</t>
+          <t>NEMAL</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -10723,12 +10723,12 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>N48°03'31.99"</t>
+          <t>N47°55'04.99"</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>E012°33'34.00"</t>
+          <t>E013°29'53.99"</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -10740,7 +10740,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>NEMAL</t>
+          <t>ARSIN</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -10755,12 +10755,12 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>N47°55'04.99"</t>
+          <t>N47°34'01.99"</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>E013°29'53.99"</t>
+          <t>E016°45'13.00"</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -10772,7 +10772,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ARSIN</t>
+          <t>VAJDI</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -10787,12 +10787,12 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>N47°34'01.99"</t>
+          <t>N47°22'32.00"</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>E016°45'13.00"</t>
+          <t>E018°17'08.99"</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -10804,7 +10804,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>VAJDI</t>
+          <t>GILEP</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -10819,12 +10819,12 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>N47°22'32.00"</t>
+          <t>N47°29'00.00"</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>E018°17'08.99"</t>
+          <t>E018°15'32.00"</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -10836,7 +10836,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>GILEP</t>
+          <t>BEGLA</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -10851,12 +10851,12 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>N47°29'00.00"</t>
+          <t>N47°49'50.99"</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>E018°15'32.00"</t>
+          <t>E017°06'52.00"</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -10868,7 +10868,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>BEGLA</t>
+          <t>MOVOS</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -10883,12 +10883,12 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>N47°49'50.99"</t>
+          <t>N47°54'40.99"</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>E017°06'52.00"</t>
+          <t>E016°26'13.99"</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -10900,7 +10900,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>MOVOS</t>
+          <t>RENKA</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -10915,12 +10915,12 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>N47°54'40.99"</t>
+          <t>N48°35'05.00"</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>E016°26'13.99"</t>
+          <t>E013°30'18.99"</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -10932,7 +10932,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>RENKA</t>
+          <t>GONBA</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -10947,12 +10947,12 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>N48°35'05.00"</t>
+          <t>N48°41'16.00"</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>E013°30'18.99"</t>
+          <t>E013°04'33.00"</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -10964,7 +10964,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>GONBA</t>
+          <t>STAUB</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -10979,12 +10979,12 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>N48°41'16.00"</t>
+          <t>N48°47'09.00"</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>E013°04'33.00"</t>
+          <t>E012°39'28.99"</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -10996,7 +10996,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>STAUB</t>
+          <t>MAMOR</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -11011,12 +11011,12 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>N48°47'09.00"</t>
+          <t>N48°53'08.99"</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>E012°39'28.99"</t>
+          <t>E012°13'19.99"</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -11028,7 +11028,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>MAMOR</t>
+          <t>UNKUL</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -11043,12 +11043,12 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>N48°53'08.99"</t>
+          <t>N49°08'13.99"</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>E012°13'19.99"</t>
+          <t>E011°27'34.99"</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -11060,7 +11060,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>UNKUL</t>
+          <t>UPALA</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -11075,12 +11075,12 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>N49°08'13.99"</t>
+          <t>N49°12'52.00"</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>E011°27'34.99"</t>
+          <t>E011°13'16.99"</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -11092,7 +11092,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>UPALA</t>
+          <t>PETIX</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -11107,12 +11107,12 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>N49°12'52.00"</t>
+          <t>N49°20'28.00"</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>E011°13'16.99"</t>
+          <t>E010°45'16.99"</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -11124,7 +11124,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>PETIX</t>
+          <t>COSJE</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -11139,12 +11139,12 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>N49°20'28.00"</t>
+          <t>N49°43'03.00"</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>E010°45'16.99"</t>
+          <t>E009°56'48.99"</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -11156,7 +11156,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>COSJE</t>
+          <t>RIDSU</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -11171,12 +11171,12 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>N49°43'03.00"</t>
+          <t>N49°44'56.00"</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>E009°56'48.99"</t>
+          <t>E008°28'48.00"</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -11188,7 +11188,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>RIDSU</t>
+          <t>DONAB</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -11203,12 +11203,12 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>N49°44'56.00"</t>
+          <t>N49°49'15.99"</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>E008°28'48.00"</t>
+          <t>E008°01'45.00"</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -11220,7 +11220,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>DONAB</t>
+          <t>SOBRA</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -11235,12 +11235,12 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>N49°49'15.99"</t>
+          <t>N49°51'38.99"</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>E008°01'45.00"</t>
+          <t>E007°46'32.00"</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -11252,7 +11252,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>SOBRA</t>
+          <t>ULKIG</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -11267,12 +11267,12 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>N49°51'38.99"</t>
+          <t>N49°52'11.00"</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>E007°46'32.00"</t>
+          <t>E007°43'09.99"</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -11284,7 +11284,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ULKIG</t>
+          <t>RUDOT</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -11299,12 +11299,12 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>N49°52'11.00"</t>
+          <t>N49°59'35.99"</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>E007°43'09.99"</t>
+          <t>E006°54'16.00"</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -11316,7 +11316,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>RUDOT</t>
+          <t>BITBU</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -11331,12 +11331,12 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>N49°59'35.99"</t>
+          <t>N49°58'58.99"</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>E006°54'16.00"</t>
+          <t>E006°33'41.99"</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -11348,7 +11348,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>BITBU</t>
+          <t>ASMOX</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -11363,12 +11363,12 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>N49°58'58.99"</t>
+          <t>N49°54'09.99"</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>E006°33'41.99"</t>
+          <t>E006°16'34.00"</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -11380,7 +11380,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ASMOX</t>
+          <t>NISIV</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -11395,12 +11395,12 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>N49°54'09.99"</t>
+          <t>N49°53'33.99"</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>E006°16'34.00"</t>
+          <t>E006°14'34.99"</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -11412,7 +11412,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>NISIV</t>
+          <t>DIEKIRCH</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -11427,12 +11427,12 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>N49°53'33.99"</t>
+          <t>N49°51'41.00"</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>E006°14'34.99"</t>
+          <t>E006°07'46.99"</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -11444,7 +11444,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>DIEKIRCH</t>
+          <t>IDOSA</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -11459,12 +11459,12 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>N49°51'41.00"</t>
+          <t>N49°44'30.00"</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>E006°07'46.99"</t>
+          <t>E005°52'11.00"</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -11476,7 +11476,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>IDOSA</t>
+          <t>TOLVU</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -11491,12 +11491,12 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>N49°44'30.00"</t>
+          <t>N49°37'30.99"</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>E005°52'11.00"</t>
+          <t>E005°22'18.00"</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -11508,7 +11508,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>TOLVU</t>
+          <t>RAPOR</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -11523,12 +11523,12 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>N49°37'30.99"</t>
+          <t>N49°35'28.99"</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>E005°22'18.00"</t>
+          <t>E005°12'47.00"</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -11540,7 +11540,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>RAPOR</t>
+          <t>VEDUS</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -11555,12 +11555,12 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>N49°35'28.99"</t>
+          <t>N49°35'41.00"</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>E005°12'47.00"</t>
+          <t>E004°46'52.99"</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -11572,7 +11572,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>VEDUS</t>
+          <t>SEGRE</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -11587,12 +11587,12 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>N49°35'41.00"</t>
+          <t>N41°01'21.99"</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>E004°46'52.99"</t>
+          <t>W002°22'35.00"</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -11604,7 +11604,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>PINAR</t>
+          <t>YAKXU</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -11619,12 +11619,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>N40°58'49.00"</t>
+          <t>N42°05'55.00"</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>W002°35'56.99"</t>
+          <t>W001°12'45.99"</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -11636,7 +11636,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>SEGRE</t>
+          <t>RONNY</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -11651,12 +11651,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>N41°01'21.99"</t>
+          <t>N42°25'45.00"</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>W002°22'35.00"</t>
+          <t>W000°50'41.00"</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -11668,7 +11668,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>YAKXU</t>
+          <t>TOPTU</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -11683,12 +11683,12 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>N42°05'55.00"</t>
+          <t>N42°47'48.00"</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>W001°12'45.99"</t>
+          <t>W000°11'37.00"</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -11700,7 +11700,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>RONNY</t>
+          <t>BUROX</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -11715,12 +11715,12 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>N42°25'45.00"</t>
+          <t>N43°37'49.99"</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>W000°50'41.00"</t>
+          <t>E001°15'17.99"</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -11732,7 +11732,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>TOPTU</t>
+          <t>DITEV</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -11747,12 +11747,12 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>N42°47'48.00"</t>
+          <t>N44°29'00.99"</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>W000°11'37.00"</t>
+          <t>E002°54'08.99"</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -11764,7 +11764,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>BUROX</t>
+          <t>NINUN</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -11779,12 +11779,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>N43°37'49.99"</t>
+          <t>N44°46'07.00"</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>E001°15'17.99"</t>
+          <t>E003°33'45.99"</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -11796,7 +11796,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>DITEV</t>
+          <t>MEZIN</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -11811,12 +11811,12 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>N44°29'00.99"</t>
+          <t>N45°01'02.00"</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>E002°54'08.99"</t>
+          <t>E004°11'45.00"</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -11828,7 +11828,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>NINUN</t>
+          <t>LATAM</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -11843,12 +11843,12 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>N44°46'07.00"</t>
+          <t>N45°02'01.99"</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>E003°33'45.99"</t>
+          <t>E004°14'21.00"</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -11860,7 +11860,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>MEZIN</t>
+          <t>OTROT</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -11875,12 +11875,12 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>N45°01'02.00"</t>
+          <t>N45°06'49.00"</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>E004°11'45.00"</t>
+          <t>E004°26'44.00"</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -11892,7 +11892,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>LATAM</t>
+          <t>ETREK</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -11907,12 +11907,12 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>N45°02'01.99"</t>
+          <t>N45°11'15.99"</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>E004°14'21.00"</t>
+          <t>E004°38'19.00"</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -11924,7 +11924,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>OTROT</t>
+          <t>LUXAN</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -11939,12 +11939,12 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>N45°06'49.00"</t>
+          <t>N45°22'29.00"</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>E004°26'44.00"</t>
+          <t>E005°07'58.00"</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -11956,7 +11956,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ETREK</t>
+          <t>ARKOX</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -11971,12 +11971,12 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>N45°11'15.99"</t>
+          <t>N45°26'23.99"</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>E004°38'19.00"</t>
+          <t>E005°18'27.00"</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -11988,7 +11988,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>LUXAN</t>
+          <t>LATOURDUPIN</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -12003,12 +12003,12 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>N45°22'29.00"</t>
+          <t>N45°29'19.99"</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>E005°07'58.00"</t>
+          <t>E005°26'21.00"</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -12020,7 +12020,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ARKOX</t>
+          <t>GIPNO</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -12035,12 +12035,12 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>N45°26'23.99"</t>
+          <t>N45°33'36.00"</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>E005°18'27.00"</t>
+          <t>E005°31'45.00"</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -12052,7 +12052,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>LATOURDUPIN</t>
+          <t>NAVLA</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -12067,12 +12067,12 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>N45°29'19.99"</t>
+          <t>N45°40'01.99"</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>E005°26'21.00"</t>
+          <t>E005°40'01.00"</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -12084,7 +12084,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>GIPNO</t>
+          <t>SOPLO</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -12099,12 +12099,12 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>N45°33'36.00"</t>
+          <t>N45°43'44.00"</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>E005°31'45.00"</t>
+          <t>E005°44'45.00"</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -12116,7 +12116,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>NAVLA</t>
+          <t>OMASI</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -12131,12 +12131,12 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>N45°40'01.99"</t>
+          <t>N45°54'21.99"</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>E005°40'01.00"</t>
+          <t>E005°58'27.00"</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -12148,7 +12148,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>SOPLO</t>
+          <t>KINNI</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -12163,12 +12163,12 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>N45°43'44.00"</t>
+          <t>N46°05'19.99"</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>E005°44'45.00"</t>
+          <t>E006°12'42.00"</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -12180,7 +12180,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>OMASI</t>
+          <t>MOLUS</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -12195,12 +12195,12 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>N45°54'21.99"</t>
+          <t>N46°26'37.99"</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>E005°58'27.00"</t>
+          <t>E006°40'45.99"</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -12212,7 +12212,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>KINNI</t>
+          <t>SOSAL</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -12227,12 +12227,12 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>N46°05'19.99"</t>
+          <t>N46°33'28.99"</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>E006°12'42.00"</t>
+          <t>E006°53'03.99"</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -12244,7 +12244,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>MOLUS</t>
+          <t>TELNO</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -12259,12 +12259,12 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>N46°26'37.99"</t>
+          <t>N46°46'18.99"</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>E006°40'45.99"</t>
+          <t>E007°16'14.99"</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -12276,7 +12276,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>SOSAL</t>
+          <t>KORED</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -12291,12 +12291,12 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>N46°33'28.99"</t>
+          <t>N46°51'01.99"</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>E006°53'03.99"</t>
+          <t>E007°24'50.99"</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -12308,7 +12308,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>TELNO</t>
+          <t>KONOL</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -12323,12 +12323,12 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>N46°46'18.99"</t>
+          <t>N46°59'43.00"</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>E007°16'14.99"</t>
+          <t>E007°40'50.99"</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -12340,7 +12340,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>KORED</t>
+          <t>BERSU</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -12355,12 +12355,12 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>N46°51'01.99"</t>
+          <t>N47°08'07.99"</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>E007°24'50.99"</t>
+          <t>E007°56'28.99"</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -12372,7 +12372,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>KONOL</t>
+          <t>SONOM</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -12387,12 +12387,12 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>N46°59'43.00"</t>
+          <t>N47°47'02.99"</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>E007°40'50.99"</t>
+          <t>E008°53'45.99"</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -12404,7 +12404,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>BERSU</t>
+          <t>LADOL</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -12419,12 +12419,12 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>N47°08'07.99"</t>
+          <t>N48°09'59.99"</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>E007°56'28.99"</t>
+          <t>E008°57'11.99"</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -12436,7 +12436,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>SONOM</t>
+          <t>EMPAX</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -12451,12 +12451,12 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>N47°47'02.99"</t>
+          <t>N48°27'42.99"</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>E008°53'45.99"</t>
+          <t>E008°59'53.00"</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -12468,7 +12468,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>LADOL</t>
+          <t>NELLI</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -12483,12 +12483,12 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>N48°09'59.99"</t>
+          <t>N48°37'40.00"</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>E008°57'11.99"</t>
+          <t>E009°01'24.99"</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -12500,7 +12500,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>EMPAX</t>
+          <t>KOVAN</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -12515,12 +12515,12 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>N48°27'42.99"</t>
+          <t>N48°52'57.00"</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>E008°59'53.00"</t>
+          <t>E009°05'02.99"</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -12532,7 +12532,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>NELLI</t>
+          <t>OKIBA</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -12547,12 +12547,12 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>N48°37'40.00"</t>
+          <t>N49°12'52.99"</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>E009°01'24.99"</t>
+          <t>E009°18'57.99"</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -12564,7 +12564,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>KOVAN</t>
+          <t>ROLSO</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -12579,12 +12579,12 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>N48°52'57.00"</t>
+          <t>N49°21'15.00"</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>E009°05'02.99"</t>
+          <t>E009°18'19.00"</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -12596,7 +12596,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>LUBURG</t>
+          <t>RIMKI</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -12611,12 +12611,12 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>N48°54'47.00"</t>
+          <t>N49°44'56.00"</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>E009°20'25.00"</t>
+          <t>E009°21'50.00"</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -12628,7 +12628,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>OKIBA</t>
+          <t>LOHRE</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -12643,12 +12643,12 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>N49°12'52.99"</t>
+          <t>N50°04'01.00"</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>E009°18'57.99"</t>
+          <t>E009°29'11.00"</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -12660,7 +12660,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ROLSO</t>
+          <t>TIKNI</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -12675,12 +12675,12 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>N49°21'15.00"</t>
+          <t>N50°24'34.99"</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>E009°18'19.00"</t>
+          <t>E009°52'23.99"</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -12692,7 +12692,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>RIMKI</t>
+          <t>GAPLA</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -12707,12 +12707,12 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>N49°44'56.00"</t>
+          <t>N50°39'13.99"</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>E009°21'50.00"</t>
+          <t>E010°16'49.99"</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -12724,7 +12724,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>LOHRE</t>
+          <t>TAMEB</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -12739,12 +12739,12 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>N50°04'01.00"</t>
+          <t>N50°48'28.00"</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>E009°29'11.00"</t>
+          <t>E010°43'48.00"</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -12756,7 +12756,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>TIKNI</t>
+          <t>WEMAR</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -12771,12 +12771,12 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>N50°24'34.99"</t>
+          <t>N50°58'58.99"</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>E009°52'23.99"</t>
+          <t>E011°15'06.99"</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -12788,7 +12788,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>GAPLA</t>
+          <t>RELKO</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -12803,12 +12803,12 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>N50°39'13.99"</t>
+          <t>N51°03'34.99"</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>E010°16'49.99"</t>
+          <t>E011°29'01.99"</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -12820,7 +12820,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>TAMEB</t>
+          <t>NAMUB</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -12835,12 +12835,12 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>N50°48'28.00"</t>
+          <t>N51°07'24.99"</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>E010°43'48.00"</t>
+          <t>E011°40'42.99"</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -12852,7 +12852,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>WEMAR</t>
+          <t>NOTGO</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -12867,12 +12867,12 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>N50°58'58.99"</t>
+          <t>N51°12'38.00"</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>E011°15'06.99"</t>
+          <t>E011°56'48.00"</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -12884,7 +12884,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>RELKO</t>
+          <t>RUDAK</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -12899,12 +12899,12 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>N51°03'34.99"</t>
+          <t>N51°46'42.00"</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>E011°29'01.99"</t>
+          <t>E012°54'57.99"</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -12916,7 +12916,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>NAMUB</t>
+          <t>VFA</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -12931,12 +12931,12 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>N51°07'24.99"</t>
+          <t>N37°00\'48.99"</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>E011°40'42.99"</t>
+          <t>W007°58\'30.00"</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
@@ -12948,7 +12948,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>NOTGO</t>
+          <t>MINTA</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -12963,12 +12963,12 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>N51°12'38.00"</t>
+          <t>N37°07\'43.99"</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>E011°56'48.00"</t>
+          <t>W007°22\'59.99"</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -12980,7 +12980,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>RUDAK</t>
+          <t>OSLEP</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -12995,12 +12995,12 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>N51°46'42.00"</t>
+          <t>N37°09\'54.99"</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>E012°54'57.99"</t>
+          <t>W007°11\'30.99"</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -13012,7 +13012,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>KLASDORF</t>
+          <t>OXACA</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -13027,12 +13027,12 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>N52°01'10.00"</t>
+          <t>N37°57\'00.00"</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>E013°33'47.99"</t>
+          <t>W006°00\'00.00"</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -13044,7 +13044,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>LATID</t>
+          <t>DIONY</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -13059,12 +13059,12 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>N14°28'35.00"</t>
+          <t>N38°35\'49.99"</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>E077°56'55.99"</t>
+          <t>W005°28\'36.99"</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
@@ -13076,7 +13076,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>VIRAM</t>
+          <t>PARKA</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -13091,12 +13091,12 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>N15°21'33.99"</t>
+          <t>N39°00\'00.00"</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>E078°05'55.00"</t>
+          <t>W005°09\'00.00"</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -13108,7 +13108,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>BOSGA</t>
+          <t>TLD</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -13123,12 +13123,12 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>N16°12'33.99"</t>
+          <t>N39°58\'09.99"</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>E078°14'16.00"</t>
+          <t>W004°20\'15.00"</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -13140,7 +13140,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>SAKRO</t>
+          <t>SIE</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -13155,12 +13155,12 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>N16°34'00.16"</t>
+          <t>N41°09\'05.99"</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>E078°17'47.35"</t>
+          <t>W003°36\'16.99"</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -13172,7 +13172,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>HIA</t>
+          <t>EDIGO</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -13187,12 +13187,12 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>N17°13'40.10"</t>
+          <t>N41°30\'15.00"</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>E078°24'20.87"</t>
+          <t>W003°24\'41.99"</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
@@ -13204,7 +13204,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>BUSBO</t>
+          <t>DGO</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -13219,12 +13219,12 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>N19°14'58.00"</t>
+          <t>N42°27\'11.99"</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>E078°07'30.00"</t>
+          <t>W002°52\'51.00"</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -13236,7 +13236,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ASIPI</t>
+          <t>ABRIX</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -13251,12 +13251,12 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>N20°31'29.99"</t>
+          <t>N43°38\'47.00"</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>E077°52'44.99"</t>
+          <t>W001°57\'44.99"</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -13268,7 +13268,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>TAMID</t>
+          <t>ASKAN</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -13283,12 +13283,12 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>N20°41'17.99"</t>
+          <t>N45°02\'39.99"</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>E077°50'56.00"</t>
+          <t>W001°02\'22.99"</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -13300,7 +13300,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>KAMLO</t>
+          <t>ETPAR</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -13315,12 +13315,12 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>N20°55'08.99"</t>
+          <t>N45°11\'44.99"</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>E077°48'02.99"</t>
+          <t>W000°51\'42.00"</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -13332,7 +13332,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>UPTAR</t>
+          <t>POI</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -13347,12 +13347,12 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>N21°30'42.00"</t>
+          <t>N46°34\'52.00"</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>E077°40'54.99"</t>
+          <t>E000°17\'52.99"</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -13364,7 +13364,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>BIGIL</t>
+          <t>BOKNO</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -13379,12 +13379,12 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>N22°07'01.99"</t>
+          <t>N47°02\'48.99"</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>E077°33'56.00"</t>
+          <t>E000°41\'30.00"</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -13396,7 +13396,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>BPL</t>
+          <t>DEVRO</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -13411,12 +13411,12 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>N23°16'59.73"</t>
+          <t>N47°29\'43.99"</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>E077°20'11.85"</t>
+          <t>E000°44\'18.99"</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -13428,7 +13428,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>PUKES</t>
+          <t>VANAD</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -13443,12 +13443,12 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>N24°42'02.00"</t>
+          <t>N47°50\'14.00"</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>E077°16'11.99"</t>
+          <t>E000°54\'26.00"</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -13460,7 +13460,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>BUKLO</t>
+          <t>PIWIZ</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -13475,12 +13475,12 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>N25°00'01.00"</t>
+          <t>N48°12\'54.00"</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>E077°15'26.00"</t>
+          <t>E001°05\'55.99"</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -13492,7 +13492,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>BAVOX</t>
+          <t>VADOM</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -13507,12 +13507,12 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>N26°08'30.99"</t>
+          <t>N48°33\'01.99"</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>E077°12'55.99"</t>
+          <t>E001°16\'14.99"</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
@@ -13524,7 +13524,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>AURANGABAD</t>
+          <t>BAMES</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -13539,12 +13539,12 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>N19°51'39.95"</t>
+          <t>N48°58\'30.99"</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>E075°24'18.90"</t>
+          <t>E001°29\'10.00"</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
@@ -13556,7 +13556,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>DUBOX</t>
+          <t>ARSAF</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -13571,12 +13571,12 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>N20°22'15.00"</t>
+          <t>N49°21\'03.00"</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>E076°49'56.00"</t>
+          <t>E002°08\'03.00"</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -13588,7 +13588,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>NINAT</t>
+          <t>KOPOR</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -13603,12 +13603,12 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>N20°32'48.00"</t>
+          <t>N49°30\'50.99"</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>E077°24'56.00"</t>
+          <t>E002°25\'17.00"</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -13620,7 +13620,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>NAGPUR</t>
+          <t>EGOZE</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -13635,12 +13635,12 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>N21°04'53.22"</t>
+          <t>N49°33\'09.99"</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>E079°03'22.67"</t>
+          <t>E002°29\'22.00"</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -13652,7 +13652,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>TEGIG</t>
+          <t>NURMO</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -13667,12 +13667,12 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>N21°30'09.00"</t>
+          <t>N49°49\'33.99"</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>E080°35'37.00"</t>
+          <t>E002°45\'18.99"</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
@@ -13684,7 +13684,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>DOSAT</t>
+          <t>PERON</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -13699,12 +13699,12 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>N21°41'32.99"</t>
+          <t>N49°54\'45.00"</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>E081°18'24.00"</t>
+          <t>E002°50\'23.99"</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
@@ -13716,7 +13716,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>OPONI</t>
+          <t>SULEX</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -13731,12 +13731,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>N21°47'03.00"</t>
+          <t>N50°00\'00.00"</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>E081°38'24.00"</t>
+          <t>E002°55\'31.99"</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -13748,7 +13748,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>NIPAD</t>
+          <t>CMB</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -13763,12 +13763,12 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>N21°52'17.99"</t>
+          <t>N50°13\'41.00"</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>E081°59'52.99"</t>
+          <t>E003°09\'05.00"</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -13780,7 +13780,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>OTABA</t>
+          <t>VEKIN</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -13795,12 +13795,12 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>N22°11'02.99"</t>
+          <t>N50°24\'14.99"</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>E083°19'22.99"</t>
+          <t>E003°16\'29.99"</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -13812,7 +13812,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>KINKI</t>
+          <t>ARVOL</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -13827,12 +13827,12 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>N22°19'17.99"</t>
+          <t>N50°32\'45.00"</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>E083°55'38.00"</t>
+          <t>E003°29\'48.99"</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -13844,7 +13844,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>AGROM</t>
+          <t>LATID</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -13859,12 +13859,12 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>N22°31'44.99"</t>
+          <t>N14°28'35.00"</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>E084°49'59.99"</t>
+          <t>E077°56'55.99"</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -13876,7 +13876,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>JAMSHEDPUR</t>
+          <t>VIRAM</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -13891,12 +13891,12 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>N22°48'47.47"</t>
+          <t>N15°21'33.99"</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>E086°10'26.15"</t>
+          <t>E078°05'55.00"</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -13908,7 +13908,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>KAMGU</t>
+          <t>BOSGA</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -13923,12 +13923,12 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>N14°58'31.00"</t>
+          <t>N16°12'33.99"</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>E079°25'12.00"</t>
+          <t>E078°14'16.00"</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
@@ -13940,7 +13940,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>KIKUR</t>
+          <t>SAKRO</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -13955,12 +13955,12 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>N15°58'54.99"</t>
+          <t>N16°34'00.16"</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>E079°10'32.00"</t>
+          <t>E078°17'47.35"</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
@@ -13972,7 +13972,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>ANDAV</t>
+          <t>HIA</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -13987,12 +13987,12 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>N17°28'18.00"</t>
+          <t>N17°13'40.10"</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>E078°48'49.00"</t>
+          <t>E078°24'20.87"</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
@@ -14004,7 +14004,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ALBED</t>
+          <t>BUSBO</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -14019,12 +14019,12 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>N18°07'01.99"</t>
+          <t>N19°14'58.00"</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>E078°39'23.99"</t>
+          <t>E078°07'30.00"</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -14036,7 +14036,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>LAROB</t>
+          <t>ASIPI</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -14051,12 +14051,12 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>N19°10'14.00"</t>
+          <t>N20°31'29.99"</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>E078°23'40.00"</t>
+          <t>E077°52'44.99"</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -14068,7 +14068,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>SUDEL</t>
+          <t>TAMID</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -14083,12 +14083,12 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>N19°34'17.99"</t>
+          <t>N20°41'17.99"</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>E078°17'18.99"</t>
+          <t>E077°50'56.00"</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
@@ -14100,7 +14100,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>TASEX</t>
+          <t>KAMLO</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -14115,12 +14115,12 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>N20°33'54.00"</t>
+          <t>N20°55'08.99"</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>E078°01'36.99"</t>
+          <t>E077°48'02.99"</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -14132,7 +14132,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>RENAG</t>
+          <t>UPTAR</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -14147,12 +14147,12 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>N22°03'12.00"</t>
+          <t>N21°30'42.00"</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>E077°39'32.00"</t>
+          <t>E077°40'54.99"</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -14164,7 +14164,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>BHOPAL</t>
+          <t>BIGIL</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -14179,12 +14179,12 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>N23°16'59.73"</t>
+          <t>N22°07'01.99"</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>E077°20'11.85"</t>
+          <t>E077°33'56.00"</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -14196,30 +14196,830 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
+          <t>BPL</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>N23°16'59.73"</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>E077°20'11.85"</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>PUKES</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>N24°42'02.00"</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>E077°16'11.99"</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>BUKLO</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>N25°00'01.00"</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>E077°15'26.00"</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>BAVOX</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>N26°08'30.99"</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>E077°12'55.99"</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>AURANGABAD</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>N19°51'39.95"</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>E075°24'18.90"</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>DUBOX</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>N20°22'15.00"</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>E076°49'56.00"</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>NINAT</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>N20°32'48.00"</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>E077°24'56.00"</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>NAGPUR</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>N21°04'53.22"</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>E079°03'22.67"</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>TEGIG</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>N21°30'09.00"</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>E080°35'37.00"</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>DOSAT</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>N21°41'32.99"</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>E081°18'24.00"</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>OPONI</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>N21°47'03.00"</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>E081°38'24.00"</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>NIPAD</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>N21°52'17.99"</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>E081°59'52.99"</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>OTABA</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>N22°11'02.99"</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>E083°19'22.99"</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>KINKI</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>N22°19'17.99"</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>E083°55'38.00"</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>AGROM</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>N22°31'44.99"</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>E084°49'59.99"</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>JAMSHEDPUR</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>N22°48'47.47"</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>E086°10'26.15"</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>KAMGU</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>N14°58'31.00"</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>E079°25'12.00"</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>KIKUR</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>N15°58'54.99"</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>E079°10'32.00"</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>ANDAV</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>N17°28'18.00"</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>E078°48'49.00"</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>ALBED</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>N18°07'01.99"</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>E078°39'23.99"</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>LAROB</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>N19°10'14.00"</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>E078°23'40.00"</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>SUDEL</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>N19°34'17.99"</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>E078°17'18.99"</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>TASEX</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>N20°33'54.00"</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>E078°01'36.99"</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>RENAG</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>N22°03'12.00"</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>E077°39'32.00"</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>BHOPAL</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>N23°16'59.73"</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>E077°20'11.85"</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>Unknown Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
           <t>INTIL</t>
         </is>
       </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C431" t="inlineStr">
-        <is>
-          <t>WayPoint</t>
-        </is>
-      </c>
-      <c r="D431" t="inlineStr">
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>WayPoint</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
         <is>
           <t>N26°27'51.00"</t>
         </is>
       </c>
-      <c r="E431" t="inlineStr">
+      <c r="E456" t="inlineStr">
         <is>
           <t>E076°32'40.99"</t>
         </is>
       </c>
-      <c r="F431" t="inlineStr">
+      <c r="F456" t="inlineStr">
         <is>
           <t>Unknown Name</t>
         </is>
